--- a/teaching/traditional_assets/database/data/france/france_semiconductor_equip.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_semiconductor_equip.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="enxtpa_alrib" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,118 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06849999999999999</v>
+        <v>0.123</v>
+      </c>
+      <c r="F2">
+        <v>-0.332</v>
       </c>
       <c r="G2">
-        <v>0.1039814814814815</v>
+        <v>0.1247863247863248</v>
       </c>
       <c r="H2">
-        <v>0.02064814814814815</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="I2">
-        <v>-0.1141695349560889</v>
+        <v>0.01504273504273504</v>
       </c>
       <c r="J2">
-        <v>-0.1141695349560889</v>
+        <v>0.01021681847972928</v>
       </c>
       <c r="K2">
-        <v>-2.83</v>
+        <v>0.434</v>
       </c>
       <c r="L2">
-        <v>-0.08734567901234569</v>
+        <v>0.01236467236467236</v>
       </c>
       <c r="M2">
-        <v>1.8106</v>
+        <v>1.886</v>
       </c>
       <c r="N2">
-        <v>0.02906260032102729</v>
+        <v>0.04774683544303797</v>
       </c>
       <c r="O2">
-        <v>-0.6397879858657244</v>
+        <v>4.345622119815668</v>
       </c>
       <c r="P2">
-        <v>1.1856</v>
+        <v>1.88</v>
       </c>
       <c r="Q2">
-        <v>0.01903049759229535</v>
+        <v>0.04759493670886076</v>
       </c>
       <c r="R2">
-        <v>-0.4189399293286219</v>
+        <v>4.331797235023041</v>
       </c>
       <c r="S2">
-        <v>0.625</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="T2">
-        <v>0.3451894399646526</v>
+        <v>0.003181336161187702</v>
       </c>
       <c r="U2">
-        <v>2.82</v>
+        <v>6.84</v>
       </c>
       <c r="V2">
-        <v>0.04526484751203852</v>
+        <v>0.1731645569620253</v>
       </c>
       <c r="W2">
-        <v>-0.1164609053497942</v>
+        <v>0.0217</v>
       </c>
       <c r="X2">
-        <v>0.1236047710645691</v>
+        <v>0.1113986146152091</v>
       </c>
       <c r="Y2">
-        <v>-0.2400656764143634</v>
+        <v>-0.08969861461520906</v>
       </c>
       <c r="Z2">
-        <v>1.867385146710529</v>
+        <v>2.162128865344339</v>
       </c>
       <c r="AA2">
-        <v>-0.2131984937838491</v>
+        <v>0.02209007814700614</v>
       </c>
       <c r="AB2">
-        <v>0.1225627371954476</v>
+        <v>0.09733156273665204</v>
       </c>
       <c r="AC2">
-        <v>-0.3357612309792967</v>
+        <v>-0.0752414845896459</v>
       </c>
       <c r="AD2">
-        <v>0.504</v>
+        <v>7.35</v>
       </c>
       <c r="AE2">
-        <v>0.1904646628864121</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.6944646628864122</v>
+        <v>7.35</v>
       </c>
       <c r="AG2">
-        <v>-2.125535337113588</v>
+        <v>0.5099999999999998</v>
       </c>
       <c r="AH2">
-        <v>0.01102421723246361</v>
+        <v>0.1568836712913554</v>
       </c>
       <c r="AI2">
-        <v>0.03355799119229548</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AJ2">
-        <v>-0.03532287904880269</v>
+        <v>0.01274681329667583</v>
       </c>
       <c r="AK2">
-        <v>-0.118914629176388</v>
+        <v>0.02536051715564395</v>
       </c>
       <c r="AL2">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AM2">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AN2">
-        <v>-0.1464690496948562</v>
+        <v>8.361774744027302</v>
       </c>
       <c r="AO2">
-        <v>-253.3333333333333</v>
+        <v>48.00000000000001</v>
       </c>
       <c r="AP2">
-        <v>0.617708612936236</v>
+        <v>0.5802047781569963</v>
       </c>
       <c r="AQ2">
-        <v>-253.3333333333333</v>
+        <v>48.00000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Riber S.A. (ENXTPA:RIB)</t>
+          <t>Riber S.A. (ENXTPA:ALRIB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,118 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.06849999999999999</v>
+        <v>0.123</v>
+      </c>
+      <c r="F3">
+        <v>-0.332</v>
       </c>
       <c r="G3">
-        <v>0.1039814814814815</v>
+        <v>0.1247863247863248</v>
       </c>
       <c r="H3">
-        <v>0.02064814814814815</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="I3">
-        <v>-0.1141695349560889</v>
+        <v>0.01504273504273504</v>
       </c>
       <c r="J3">
-        <v>-0.1141695349560889</v>
+        <v>0.01021681847972928</v>
       </c>
       <c r="K3">
-        <v>-2.83</v>
+        <v>0.434</v>
       </c>
       <c r="L3">
-        <v>-0.08734567901234569</v>
+        <v>0.01236467236467236</v>
       </c>
       <c r="M3">
-        <v>1.8106</v>
+        <v>1.886</v>
       </c>
       <c r="N3">
-        <v>0.02906260032102729</v>
+        <v>0.04774683544303797</v>
       </c>
       <c r="O3">
-        <v>-0.6397879858657244</v>
+        <v>4.345622119815668</v>
       </c>
       <c r="P3">
-        <v>1.1856</v>
+        <v>1.88</v>
       </c>
       <c r="Q3">
-        <v>0.01903049759229535</v>
+        <v>0.04759493670886076</v>
       </c>
       <c r="R3">
-        <v>-0.4189399293286219</v>
+        <v>4.331797235023041</v>
       </c>
       <c r="S3">
-        <v>0.625</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="T3">
-        <v>0.3451894399646526</v>
+        <v>0.003181336161187702</v>
       </c>
       <c r="U3">
-        <v>2.82</v>
+        <v>6.84</v>
       </c>
       <c r="V3">
-        <v>0.04526484751203852</v>
+        <v>0.1731645569620253</v>
       </c>
       <c r="W3">
-        <v>-0.1164609053497942</v>
+        <v>0.0217</v>
       </c>
       <c r="X3">
-        <v>0.1236047710645691</v>
+        <v>0.1113986146152091</v>
       </c>
       <c r="Y3">
-        <v>-0.2400656764143634</v>
+        <v>-0.08969861461520906</v>
       </c>
       <c r="Z3">
-        <v>1.867385146710529</v>
+        <v>2.162128865344339</v>
       </c>
       <c r="AA3">
-        <v>-0.2131984937838491</v>
+        <v>0.02209007814700614</v>
       </c>
       <c r="AB3">
-        <v>0.1225627371954476</v>
+        <v>0.09733156273665204</v>
       </c>
       <c r="AC3">
-        <v>-0.3357612309792967</v>
+        <v>-0.0752414845896459</v>
       </c>
       <c r="AD3">
-        <v>0.504</v>
+        <v>7.35</v>
       </c>
       <c r="AE3">
-        <v>0.1904646628864121</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6944646628864122</v>
+        <v>7.35</v>
       </c>
       <c r="AG3">
-        <v>-2.125535337113588</v>
+        <v>0.5099999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.01102421723246361</v>
+        <v>0.1568836712913554</v>
       </c>
       <c r="AI3">
-        <v>0.03355799119229548</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AJ3">
-        <v>-0.03532287904880269</v>
+        <v>0.01274681329667583</v>
       </c>
       <c r="AK3">
-        <v>-0.118914629176388</v>
+        <v>0.02536051715564395</v>
       </c>
       <c r="AL3">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AM3">
-        <v>0.015</v>
+        <v>0.011</v>
       </c>
       <c r="AN3">
-        <v>-0.1464690496948562</v>
+        <v>8.361774744027302</v>
       </c>
       <c r="AO3">
-        <v>-253.3333333333333</v>
+        <v>48.00000000000001</v>
       </c>
       <c r="AP3">
-        <v>0.617708612936236</v>
+        <v>0.5802047781569963</v>
       </c>
       <c r="AQ3">
-        <v>-253.3333333333333</v>
+        <v>48.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Riber S.A. (ENXTPA:ALRIB)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ENXTPA:ALRIB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Semiconductor Equip</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.156883671291355</v>
+      </c>
+      <c r="F2">
+        <v>0.11</v>
+      </c>
+      <c r="G2">
+        <v>39.5</v>
+      </c>
+      <c r="H2">
+        <v>41.6972688865398</v>
+      </c>
+      <c r="I2">
+        <v>40.01</v>
+      </c>
+      <c r="J2">
+        <v>40.0107688865398</v>
+      </c>
+      <c r="K2">
+        <v>7.35</v>
+      </c>
+      <c r="L2">
+        <v>5.1535</v>
+      </c>
+      <c r="M2">
+        <v>0.097331562736652</v>
+      </c>
+      <c r="N2">
+        <v>0.0973298710350039</v>
+      </c>
+      <c r="O2">
+        <v>0.0217331206682164</v>
+      </c>
+      <c r="P2">
+        <v>0.016272</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.111398614615209</v>
+      </c>
+      <c r="T2">
+        <v>0.107348259589892</v>
+      </c>
+      <c r="U2">
+        <v>1.96322713920432</v>
+      </c>
+      <c r="V2">
+        <v>1.88534393834911</v>
+      </c>
+      <c r="W2">
+        <v>4.533391259999433</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>39.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.05200550286636164</v>
+      </c>
+      <c r="AC2">
+        <v>0.03018488981696718</v>
+      </c>
+      <c r="AD2">
+        <v>0.28</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.879</v>
+      </c>
+      <c r="AH2">
+        <v>0.351</v>
+      </c>
+      <c r="AI2">
+        <v>0.9489999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>7.35</v>
+      </c>
+      <c r="AK2">
+        <v>7.35</v>
+      </c>
+      <c r="AL2">
+        <v>0.011</v>
+      </c>
+      <c r="AM2">
+        <v>7.350000000000001</v>
+      </c>
+      <c r="AN2">
+        <v>6.84</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.09933606173648771</v>
+      </c>
+      <c r="C2">
+        <v>45.95924574624166</v>
+      </c>
+      <c r="D2">
+        <v>39.11924574624167</v>
+      </c>
+      <c r="E2">
+        <v>-7.35</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>6.84</v>
+      </c>
+      <c r="H2">
+        <v>39.5</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.879</v>
+      </c>
+      <c r="K2">
+        <v>0.351</v>
+      </c>
+      <c r="L2">
+        <v>0.528</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.528</v>
+      </c>
+      <c r="O2">
+        <v>0.14784</v>
+      </c>
+      <c r="P2">
+        <v>0.38016</v>
+      </c>
+      <c r="Q2">
+        <v>0.73116</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.09933606173648771</v>
+      </c>
+      <c r="T2">
+        <v>1.73127951416705</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09910760076362554</v>
+      </c>
+      <c r="C3">
+        <v>45.59026094166865</v>
+      </c>
+      <c r="D3">
+        <v>39.21876094166865</v>
+      </c>
+      <c r="E3">
+        <v>-6.8815</v>
+      </c>
+      <c r="F3">
+        <v>0.4685</v>
+      </c>
+      <c r="G3">
+        <v>6.84</v>
+      </c>
+      <c r="H3">
+        <v>39.5</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.879</v>
+      </c>
+      <c r="K3">
+        <v>0.351</v>
+      </c>
+      <c r="L3">
+        <v>0.528</v>
+      </c>
+      <c r="M3">
+        <v>0.0075897</v>
+      </c>
+      <c r="N3">
+        <v>0.5204103</v>
+      </c>
+      <c r="O3">
+        <v>0.145714884</v>
+      </c>
+      <c r="P3">
+        <v>0.374695416</v>
+      </c>
+      <c r="Q3">
+        <v>0.725695416</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.09999086945820762</v>
+      </c>
+      <c r="T3">
+        <v>1.743870637906447</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>69.56796711332463</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09887913979076338</v>
+      </c>
+      <c r="C4">
+        <v>45.22178374050452</v>
+      </c>
+      <c r="D4">
+        <v>39.31878374050452</v>
+      </c>
+      <c r="E4">
+        <v>-6.412999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="G4">
+        <v>6.84</v>
+      </c>
+      <c r="H4">
+        <v>39.5</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.879</v>
+      </c>
+      <c r="K4">
+        <v>0.351</v>
+      </c>
+      <c r="L4">
+        <v>0.528</v>
+      </c>
+      <c r="M4">
+        <v>0.0151794</v>
+      </c>
+      <c r="N4">
+        <v>0.5128206000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.143589768</v>
+      </c>
+      <c r="P4">
+        <v>0.3692308320000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.720230832</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1006590406028198</v>
+      </c>
+      <c r="T4">
+        <v>1.756718723354811</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>34.78398355666232</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09865067881790122</v>
+      </c>
+      <c r="C5">
+        <v>44.85381803642653</v>
+      </c>
+      <c r="D5">
+        <v>39.41931803642654</v>
+      </c>
+      <c r="E5">
+        <v>-5.9445</v>
+      </c>
+      <c r="F5">
+        <v>1.4055</v>
+      </c>
+      <c r="G5">
+        <v>6.84</v>
+      </c>
+      <c r="H5">
+        <v>39.5</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.879</v>
+      </c>
+      <c r="K5">
+        <v>0.351</v>
+      </c>
+      <c r="L5">
+        <v>0.528</v>
+      </c>
+      <c r="M5">
+        <v>0.0227691</v>
+      </c>
+      <c r="N5">
+        <v>0.5052309</v>
+      </c>
+      <c r="O5">
+        <v>0.141464652</v>
+      </c>
+      <c r="P5">
+        <v>0.363766248</v>
+      </c>
+      <c r="Q5">
+        <v>0.714766248</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1013409884720631</v>
+      </c>
+      <c r="T5">
+        <v>1.769831717781492</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>23.18932237110822</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09842221784503905</v>
+      </c>
+      <c r="C6">
+        <v>44.48636776303707</v>
+      </c>
+      <c r="D6">
+        <v>39.52036776303708</v>
+      </c>
+      <c r="E6">
+        <v>-5.475999999999999</v>
+      </c>
+      <c r="F6">
+        <v>1.874</v>
+      </c>
+      <c r="G6">
+        <v>6.84</v>
+      </c>
+      <c r="H6">
+        <v>39.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.879</v>
+      </c>
+      <c r="K6">
+        <v>0.351</v>
+      </c>
+      <c r="L6">
+        <v>0.528</v>
+      </c>
+      <c r="M6">
+        <v>0.0303588</v>
+      </c>
+      <c r="N6">
+        <v>0.4976412</v>
+      </c>
+      <c r="O6">
+        <v>0.139339536</v>
+      </c>
+      <c r="P6">
+        <v>0.358301664</v>
+      </c>
+      <c r="Q6">
+        <v>0.7093016639999999</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1020371435885823</v>
+      </c>
+      <c r="T6">
+        <v>1.783217899592062</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>17.39199177833116</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09819375687217687</v>
+      </c>
+      <c r="C7">
+        <v>44.11943689437661</v>
+      </c>
+      <c r="D7">
+        <v>39.6219368943766</v>
+      </c>
+      <c r="E7">
+        <v>-5.007499999999999</v>
+      </c>
+      <c r="F7">
+        <v>2.3425</v>
+      </c>
+      <c r="G7">
+        <v>6.84</v>
+      </c>
+      <c r="H7">
+        <v>39.5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.879</v>
+      </c>
+      <c r="K7">
+        <v>0.351</v>
+      </c>
+      <c r="L7">
+        <v>0.528</v>
+      </c>
+      <c r="M7">
+        <v>0.0379485</v>
+      </c>
+      <c r="N7">
+        <v>0.4900515</v>
+      </c>
+      <c r="O7">
+        <v>0.13721442</v>
+      </c>
+      <c r="P7">
+        <v>0.35283708</v>
+      </c>
+      <c r="Q7">
+        <v>0.70383708</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1027479546022914</v>
+      </c>
+      <c r="T7">
+        <v>1.796885895756538</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>13.91359342266493</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.09812945589931471</v>
+      </c>
+      <c r="C8">
+        <v>43.67961802343677</v>
+      </c>
+      <c r="D8">
+        <v>39.65061802343676</v>
+      </c>
+      <c r="E8">
+        <v>-4.539</v>
+      </c>
+      <c r="F8">
+        <v>2.811</v>
+      </c>
+      <c r="G8">
+        <v>6.84</v>
+      </c>
+      <c r="H8">
+        <v>39.5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.879</v>
+      </c>
+      <c r="K8">
+        <v>0.351</v>
+      </c>
+      <c r="L8">
+        <v>0.528</v>
+      </c>
+      <c r="M8">
+        <v>0.05621999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.47178</v>
+      </c>
+      <c r="O8">
+        <v>0.1320984</v>
+      </c>
+      <c r="P8">
+        <v>0.3396816</v>
+      </c>
+      <c r="Q8">
+        <v>0.6906816</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1034738892545901</v>
+      </c>
+      <c r="T8">
+        <v>1.810844700350047</v>
+      </c>
+      <c r="U8">
+        <v>0.02</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.0144</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>9.391675560298827</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.09792835492645253</v>
+      </c>
+      <c r="C9">
+        <v>43.30108672324752</v>
+      </c>
+      <c r="D9">
+        <v>39.74058672324752</v>
+      </c>
+      <c r="E9">
+        <v>-4.070499999999999</v>
+      </c>
+      <c r="F9">
+        <v>3.279500000000001</v>
+      </c>
+      <c r="G9">
+        <v>6.84</v>
+      </c>
+      <c r="H9">
+        <v>39.5</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.879</v>
+      </c>
+      <c r="K9">
+        <v>0.351</v>
+      </c>
+      <c r="L9">
+        <v>0.528</v>
+      </c>
+      <c r="M9">
+        <v>0.06559</v>
+      </c>
+      <c r="N9">
+        <v>0.46241</v>
+      </c>
+      <c r="O9">
+        <v>0.1294748</v>
+      </c>
+      <c r="P9">
+        <v>0.3329352</v>
+      </c>
+      <c r="Q9">
+        <v>0.6839352</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1042154354047877</v>
+      </c>
+      <c r="T9">
+        <v>1.825103694289651</v>
+      </c>
+      <c r="U9">
+        <v>0.02</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.0144</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>8.050007623113281</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09779061395359039</v>
+      </c>
+      <c r="C10">
+        <v>42.89444534115975</v>
+      </c>
+      <c r="D10">
+        <v>39.80244534115974</v>
+      </c>
+      <c r="E10">
+        <v>-3.601999999999999</v>
+      </c>
+      <c r="F10">
+        <v>3.748</v>
+      </c>
+      <c r="G10">
+        <v>6.84</v>
+      </c>
+      <c r="H10">
+        <v>39.5</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.879</v>
+      </c>
+      <c r="K10">
+        <v>0.351</v>
+      </c>
+      <c r="L10">
+        <v>0.528</v>
+      </c>
+      <c r="M10">
+        <v>0.07908280000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.4489172</v>
+      </c>
+      <c r="O10">
+        <v>0.125696816</v>
+      </c>
+      <c r="P10">
+        <v>0.323220384</v>
+      </c>
+      <c r="Q10">
+        <v>0.674220384</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1049731021234678</v>
+      </c>
+      <c r="T10">
+        <v>1.839672666358378</v>
+      </c>
+      <c r="U10">
+        <v>0.0211</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.015192</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>6.676546606847507</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09769463298072822</v>
+      </c>
+      <c r="C11">
+        <v>42.46916377306353</v>
+      </c>
+      <c r="D11">
+        <v>39.84566377306352</v>
+      </c>
+      <c r="E11">
+        <v>-3.1335</v>
+      </c>
+      <c r="F11">
+        <v>4.2165</v>
+      </c>
+      <c r="G11">
+        <v>6.84</v>
+      </c>
+      <c r="H11">
+        <v>39.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.879</v>
+      </c>
+      <c r="K11">
+        <v>0.351</v>
+      </c>
+      <c r="L11">
+        <v>0.528</v>
+      </c>
+      <c r="M11">
+        <v>0.09529289999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.4327071</v>
+      </c>
+      <c r="O11">
+        <v>0.121157988</v>
+      </c>
+      <c r="P11">
+        <v>0.311549112</v>
+      </c>
+      <c r="Q11">
+        <v>0.662549112</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1057474208579431</v>
+      </c>
+      <c r="T11">
+        <v>1.854561835615429</v>
+      </c>
+      <c r="U11">
+        <v>0.0226</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.016272</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>5.540811539999308</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09751225200786606</v>
+      </c>
+      <c r="C12">
+        <v>42.08304565038621</v>
+      </c>
+      <c r="D12">
+        <v>39.92804565038621</v>
+      </c>
+      <c r="E12">
+        <v>-2.664999999999999</v>
+      </c>
+      <c r="F12">
+        <v>4.685</v>
+      </c>
+      <c r="G12">
+        <v>6.84</v>
+      </c>
+      <c r="H12">
+        <v>39.5</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.879</v>
+      </c>
+      <c r="K12">
+        <v>0.351</v>
+      </c>
+      <c r="L12">
+        <v>0.528</v>
+      </c>
+      <c r="M12">
+        <v>0.105881</v>
+      </c>
+      <c r="N12">
+        <v>0.422119</v>
+      </c>
+      <c r="O12">
+        <v>0.11819332</v>
+      </c>
+      <c r="P12">
+        <v>0.30392568</v>
+      </c>
+      <c r="Q12">
+        <v>0.65492568</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1065389466754067</v>
+      </c>
+      <c r="T12">
+        <v>1.869781875300414</v>
+      </c>
+      <c r="U12">
+        <v>0.0226</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.016272</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>4.986730385999376</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09732987103500389</v>
+      </c>
+      <c r="C13">
+        <v>41.69726888653984</v>
+      </c>
+      <c r="D13">
+        <v>40.01076888653984</v>
+      </c>
+      <c r="E13">
+        <v>-2.196499999999999</v>
+      </c>
+      <c r="F13">
+        <v>5.1535</v>
+      </c>
+      <c r="G13">
+        <v>6.84</v>
+      </c>
+      <c r="H13">
+        <v>39.5</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.879</v>
+      </c>
+      <c r="K13">
+        <v>0.351</v>
+      </c>
+      <c r="L13">
+        <v>0.528</v>
+      </c>
+      <c r="M13">
+        <v>0.1164691</v>
+      </c>
+      <c r="N13">
+        <v>0.4115309</v>
+      </c>
+      <c r="O13">
+        <v>0.115228652</v>
+      </c>
+      <c r="P13">
+        <v>0.296302248</v>
+      </c>
+      <c r="Q13">
+        <v>0.647302248</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.107348259589892</v>
+      </c>
+      <c r="T13">
+        <v>1.885343938349107</v>
+      </c>
+      <c r="U13">
+        <v>0.0226</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.016272</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>4.533391259999433</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1055378709916506</v>
+      </c>
+      <c r="C14">
+        <v>37.81630364908033</v>
+      </c>
+      <c r="D14">
+        <v>36.59830364908033</v>
+      </c>
+      <c r="E14">
+        <v>-1.728</v>
+      </c>
+      <c r="F14">
+        <v>5.622</v>
+      </c>
+      <c r="G14">
+        <v>6.84</v>
+      </c>
+      <c r="H14">
+        <v>39.5</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.879</v>
+      </c>
+      <c r="K14">
+        <v>0.351</v>
+      </c>
+      <c r="L14">
+        <v>0.528</v>
+      </c>
+      <c r="M14">
+        <v>0.612798</v>
+      </c>
+      <c r="N14">
+        <v>-0.08479799999999993</v>
+      </c>
+      <c r="O14">
+        <v>-0.02374343999999998</v>
+      </c>
+      <c r="P14">
+        <v>-0.06105455999999995</v>
+      </c>
+      <c r="Q14">
+        <v>0.2899454400000001</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1086516749771716</v>
+      </c>
+      <c r="T14">
+        <v>1.910406966594963</v>
+      </c>
+      <c r="U14">
+        <v>0.109</v>
+      </c>
+      <c r="V14">
+        <v>0.2412540510902451</v>
+      </c>
+      <c r="W14">
+        <v>0.08270330843116329</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>0.8616216110365896</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1111709390230714</v>
+      </c>
+      <c r="C15">
+        <v>35.3240593284044</v>
+      </c>
+      <c r="D15">
+        <v>34.5745593284044</v>
+      </c>
+      <c r="E15">
+        <v>-1.259499999999999</v>
+      </c>
+      <c r="F15">
+        <v>6.0905</v>
+      </c>
+      <c r="G15">
+        <v>6.84</v>
+      </c>
+      <c r="H15">
+        <v>39.5</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.879</v>
+      </c>
+      <c r="K15">
+        <v>0.351</v>
+      </c>
+      <c r="L15">
+        <v>0.528</v>
+      </c>
+      <c r="M15">
+        <v>0.8538881</v>
+      </c>
+      <c r="N15">
+        <v>-0.3258881</v>
+      </c>
+      <c r="O15">
+        <v>-0.09124866800000002</v>
+      </c>
+      <c r="P15">
+        <v>-0.234639432</v>
+      </c>
+      <c r="Q15">
+        <v>0.116360568</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1104603931164733</v>
+      </c>
+      <c r="T15">
+        <v>1.94518632723204</v>
+      </c>
+      <c r="U15">
+        <v>0.1402</v>
+      </c>
+      <c r="V15">
+        <v>0.173137440374213</v>
+      </c>
+      <c r="W15">
+        <v>0.1159261308595353</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>0.6183480013364748</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1124799390230714</v>
+      </c>
+      <c r="C16">
+        <v>34.41692660009119</v>
+      </c>
+      <c r="D16">
+        <v>34.13592660009118</v>
+      </c>
+      <c r="E16">
+        <v>-0.7909999999999986</v>
+      </c>
+      <c r="F16">
+        <v>6.559000000000001</v>
+      </c>
+      <c r="G16">
+        <v>6.84</v>
+      </c>
+      <c r="H16">
+        <v>39.5</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.879</v>
+      </c>
+      <c r="K16">
+        <v>0.351</v>
+      </c>
+      <c r="L16">
+        <v>0.528</v>
+      </c>
+      <c r="M16">
+        <v>0.9195718000000001</v>
+      </c>
+      <c r="N16">
+        <v>-0.3915718</v>
+      </c>
+      <c r="O16">
+        <v>-0.109640104</v>
+      </c>
+      <c r="P16">
+        <v>-0.281931696</v>
+      </c>
+      <c r="Q16">
+        <v>0.06906830399999997</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1116366767573626</v>
+      </c>
+      <c r="T16">
+        <v>1.967804772897529</v>
+      </c>
+      <c r="U16">
+        <v>0.1402</v>
+      </c>
+      <c r="V16">
+        <v>0.1607704803474835</v>
+      </c>
+      <c r="W16">
+        <v>0.1176599786552828</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>0.5741802869552981</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1137889390230714</v>
+      </c>
+      <c r="C17">
+        <v>33.52078393918089</v>
+      </c>
+      <c r="D17">
+        <v>33.70828393918089</v>
+      </c>
+      <c r="E17">
+        <v>-0.3224999999999998</v>
+      </c>
+      <c r="F17">
+        <v>7.0275</v>
+      </c>
+      <c r="G17">
+        <v>6.84</v>
+      </c>
+      <c r="H17">
+        <v>39.5</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.879</v>
+      </c>
+      <c r="K17">
+        <v>0.351</v>
+      </c>
+      <c r="L17">
+        <v>0.528</v>
+      </c>
+      <c r="M17">
+        <v>0.9852555</v>
+      </c>
+      <c r="N17">
+        <v>-0.4572554999999999</v>
+      </c>
+      <c r="O17">
+        <v>-0.12803154</v>
+      </c>
+      <c r="P17">
+        <v>-0.3292239599999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.02177604000000005</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1128406376603903</v>
+      </c>
+      <c r="T17">
+        <v>1.990955417284559</v>
+      </c>
+      <c r="U17">
+        <v>0.1402</v>
+      </c>
+      <c r="V17">
+        <v>0.1500524483243179</v>
+      </c>
+      <c r="W17">
+        <v>0.1191626467449306</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>0.5359016011582782</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1150979390230714</v>
+      </c>
+      <c r="C18">
+        <v>32.63522341717238</v>
+      </c>
+      <c r="D18">
+        <v>33.29122341717238</v>
+      </c>
+      <c r="E18">
+        <v>0.1460000000000008</v>
+      </c>
+      <c r="F18">
+        <v>7.496</v>
+      </c>
+      <c r="G18">
+        <v>6.84</v>
+      </c>
+      <c r="H18">
+        <v>39.5</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.879</v>
+      </c>
+      <c r="K18">
+        <v>0.351</v>
+      </c>
+      <c r="L18">
+        <v>0.528</v>
+      </c>
+      <c r="M18">
+        <v>1.0509392</v>
+      </c>
+      <c r="N18">
+        <v>-0.5229391999999999</v>
+      </c>
+      <c r="O18">
+        <v>-0.146422976</v>
+      </c>
+      <c r="P18">
+        <v>-0.376516224</v>
+      </c>
+      <c r="Q18">
+        <v>-0.02551622399999998</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1140732642992045</v>
+      </c>
+      <c r="T18">
+        <v>2.014657267490327</v>
+      </c>
+      <c r="U18">
+        <v>0.1402</v>
+      </c>
+      <c r="V18">
+        <v>0.1406741703040481</v>
+      </c>
+      <c r="W18">
+        <v>0.1204774813233725</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>0.5024077510858859</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1242818171289194</v>
+      </c>
+      <c r="C19">
+        <v>29.50767222549516</v>
+      </c>
+      <c r="D19">
+        <v>30.63217222549515</v>
+      </c>
+      <c r="E19">
+        <v>0.6145000000000014</v>
+      </c>
+      <c r="F19">
+        <v>7.964500000000001</v>
+      </c>
+      <c r="G19">
+        <v>6.84</v>
+      </c>
+      <c r="H19">
+        <v>39.5</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.879</v>
+      </c>
+      <c r="K19">
+        <v>0.351</v>
+      </c>
+      <c r="L19">
+        <v>0.528</v>
+      </c>
+      <c r="M19">
+        <v>1.46307865</v>
+      </c>
+      <c r="N19">
+        <v>-0.9350786500000001</v>
+      </c>
+      <c r="O19">
+        <v>-0.261822022</v>
+      </c>
+      <c r="P19">
+        <v>-0.6732566280000001</v>
+      </c>
+      <c r="Q19">
+        <v>-0.3222566280000001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1159137591773251</v>
+      </c>
+      <c r="T19">
+        <v>2.050047654597055</v>
+      </c>
+      <c r="U19">
+        <v>0.1837</v>
+      </c>
+      <c r="V19">
+        <v>0.101047199342291</v>
+      </c>
+      <c r="W19">
+        <v>0.1651376294808211</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>0.3608828547938964</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1260258171289194</v>
+      </c>
+      <c r="C20">
+        <v>28.58149705409533</v>
+      </c>
+      <c r="D20">
+        <v>30.17449705409533</v>
+      </c>
+      <c r="E20">
+        <v>1.083</v>
+      </c>
+      <c r="F20">
+        <v>8.433</v>
+      </c>
+      <c r="G20">
+        <v>6.84</v>
+      </c>
+      <c r="H20">
+        <v>39.5</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.879</v>
+      </c>
+      <c r="K20">
+        <v>0.351</v>
+      </c>
+      <c r="L20">
+        <v>0.528</v>
+      </c>
+      <c r="M20">
+        <v>1.5491421</v>
+      </c>
+      <c r="N20">
+        <v>-1.0211421</v>
+      </c>
+      <c r="O20">
+        <v>-0.2859197880000001</v>
+      </c>
+      <c r="P20">
+        <v>-0.735222312</v>
+      </c>
+      <c r="Q20">
+        <v>-0.384222312</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1172139269721705</v>
+      </c>
+      <c r="T20">
+        <v>2.075048235750677</v>
+      </c>
+      <c r="U20">
+        <v>0.1837</v>
+      </c>
+      <c r="V20">
+        <v>0.09543346604549706</v>
+      </c>
+      <c r="W20">
+        <v>0.1661688722874422</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>0.3408338073053466</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1277698171289194</v>
+      </c>
+      <c r="C21">
+        <v>27.66879680007556</v>
+      </c>
+      <c r="D21">
+        <v>29.73029680007556</v>
+      </c>
+      <c r="E21">
+        <v>1.551500000000001</v>
+      </c>
+      <c r="F21">
+        <v>8.9015</v>
+      </c>
+      <c r="G21">
+        <v>6.84</v>
+      </c>
+      <c r="H21">
+        <v>39.5</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.879</v>
+      </c>
+      <c r="K21">
+        <v>0.351</v>
+      </c>
+      <c r="L21">
+        <v>0.528</v>
+      </c>
+      <c r="M21">
+        <v>1.63520555</v>
+      </c>
+      <c r="N21">
+        <v>-1.10720555</v>
+      </c>
+      <c r="O21">
+        <v>-0.310017554</v>
+      </c>
+      <c r="P21">
+        <v>-0.7971879959999999</v>
+      </c>
+      <c r="Q21">
+        <v>-0.4461879959999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1185461976755306</v>
+      </c>
+      <c r="T21">
+        <v>2.100666115204389</v>
+      </c>
+      <c r="U21">
+        <v>0.1837</v>
+      </c>
+      <c r="V21">
+        <v>0.09041065204310249</v>
+      </c>
+      <c r="W21">
+        <v>0.1670915632196821</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>0.3228951858682231</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.1295138171289194</v>
+      </c>
+      <c r="C22">
+        <v>26.76898500200057</v>
+      </c>
+      <c r="D22">
+        <v>29.29898500200057</v>
+      </c>
+      <c r="E22">
+        <v>2.020000000000001</v>
+      </c>
+      <c r="F22">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="G22">
+        <v>6.84</v>
+      </c>
+      <c r="H22">
+        <v>39.5</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.879</v>
+      </c>
+      <c r="K22">
+        <v>0.351</v>
+      </c>
+      <c r="L22">
+        <v>0.528</v>
+      </c>
+      <c r="M22">
+        <v>1.721269</v>
+      </c>
+      <c r="N22">
+        <v>-1.193269</v>
+      </c>
+      <c r="O22">
+        <v>-0.33411532</v>
+      </c>
+      <c r="P22">
+        <v>-0.8591536800000001</v>
+      </c>
+      <c r="Q22">
+        <v>-0.5081536800000002</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1199117751464748</v>
+      </c>
+      <c r="T22">
+        <v>2.126924441644444</v>
+      </c>
+      <c r="U22">
+        <v>0.1837</v>
+      </c>
+      <c r="V22">
+        <v>0.08589011944094735</v>
+      </c>
+      <c r="W22">
+        <v>0.167921985058698</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>0.306750426574812</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1312578171289194</v>
+      </c>
+      <c r="C23">
+        <v>25.88150874409103</v>
+      </c>
+      <c r="D23">
+        <v>28.88000874409104</v>
+      </c>
+      <c r="E23">
+        <v>2.4885</v>
+      </c>
+      <c r="F23">
+        <v>9.8385</v>
+      </c>
+      <c r="G23">
+        <v>6.84</v>
+      </c>
+      <c r="H23">
+        <v>39.5</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.879</v>
+      </c>
+      <c r="K23">
+        <v>0.351</v>
+      </c>
+      <c r="L23">
+        <v>0.528</v>
+      </c>
+      <c r="M23">
+        <v>1.80733245</v>
+      </c>
+      <c r="N23">
+        <v>-1.27933245</v>
+      </c>
+      <c r="O23">
+        <v>-0.3582130860000001</v>
+      </c>
+      <c r="P23">
+        <v>-0.9211193639999999</v>
+      </c>
+      <c r="Q23">
+        <v>-0.570119364</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1213119241989618</v>
+      </c>
+      <c r="T23">
+        <v>2.153847535842475</v>
+      </c>
+      <c r="U23">
+        <v>0.1837</v>
+      </c>
+      <c r="V23">
+        <v>0.08180011375328319</v>
+      </c>
+      <c r="W23">
+        <v>0.1686733191035219</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>0.2921432634045829</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1330018171289194</v>
+      </c>
+      <c r="C24">
+        <v>25.00584629152009</v>
+      </c>
+      <c r="D24">
+        <v>28.47284629152009</v>
+      </c>
+      <c r="E24">
+        <v>2.957000000000001</v>
+      </c>
+      <c r="F24">
+        <v>10.307</v>
+      </c>
+      <c r="G24">
+        <v>6.84</v>
+      </c>
+      <c r="H24">
+        <v>39.5</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.879</v>
+      </c>
+      <c r="K24">
+        <v>0.351</v>
+      </c>
+      <c r="L24">
+        <v>0.528</v>
+      </c>
+      <c r="M24">
+        <v>1.8933959</v>
+      </c>
+      <c r="N24">
+        <v>-1.3653959</v>
+      </c>
+      <c r="O24">
+        <v>-0.382310852</v>
+      </c>
+      <c r="P24">
+        <v>-0.983085048</v>
+      </c>
+      <c r="Q24">
+        <v>-0.632085048</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1227479745092049</v>
+      </c>
+      <c r="T24">
+        <v>2.181460965789173</v>
+      </c>
+      <c r="U24">
+        <v>0.1837</v>
+      </c>
+      <c r="V24">
+        <v>0.0780819267644976</v>
+      </c>
+      <c r="W24">
+        <v>0.1693563500533618</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>0.27886402415892</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1347458171289194</v>
+      </c>
+      <c r="C25">
+        <v>24.1415049229603</v>
+      </c>
+      <c r="D25">
+        <v>28.07700492296031</v>
+      </c>
+      <c r="E25">
+        <v>3.425500000000001</v>
+      </c>
+      <c r="F25">
+        <v>10.7755</v>
+      </c>
+      <c r="G25">
+        <v>6.84</v>
+      </c>
+      <c r="H25">
+        <v>39.5</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.879</v>
+      </c>
+      <c r="K25">
+        <v>0.351</v>
+      </c>
+      <c r="L25">
+        <v>0.528</v>
+      </c>
+      <c r="M25">
+        <v>1.97945935</v>
+      </c>
+      <c r="N25">
+        <v>-1.45145935</v>
+      </c>
+      <c r="O25">
+        <v>-0.4064086180000001</v>
+      </c>
+      <c r="P25">
+        <v>-1.045050732</v>
+      </c>
+      <c r="Q25">
+        <v>-0.694050732</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1242213248275063</v>
+      </c>
+      <c r="T25">
+        <v>2.209791627682539</v>
+      </c>
+      <c r="U25">
+        <v>0.1837</v>
+      </c>
+      <c r="V25">
+        <v>0.07468706038343248</v>
+      </c>
+      <c r="W25">
+        <v>0.1699799870075635</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>0.2667395013694017</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1364898171289194</v>
+      </c>
+      <c r="C26">
+        <v>23.28801894144883</v>
+      </c>
+      <c r="D26">
+        <v>27.69201894144883</v>
+      </c>
+      <c r="E26">
+        <v>3.894</v>
+      </c>
+      <c r="F26">
+        <v>11.244</v>
+      </c>
+      <c r="G26">
+        <v>6.84</v>
+      </c>
+      <c r="H26">
+        <v>39.5</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.879</v>
+      </c>
+      <c r="K26">
+        <v>0.351</v>
+      </c>
+      <c r="L26">
+        <v>0.528</v>
+      </c>
+      <c r="M26">
+        <v>2.0655228</v>
+      </c>
+      <c r="N26">
+        <v>-1.5375228</v>
+      </c>
+      <c r="O26">
+        <v>-0.4305063840000001</v>
+      </c>
+      <c r="P26">
+        <v>-1.107016416</v>
+      </c>
+      <c r="Q26">
+        <v>-0.756016416</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.125733447522605</v>
+      </c>
+      <c r="T26">
+        <v>2.238867833309941</v>
+      </c>
+      <c r="U26">
+        <v>0.1837</v>
+      </c>
+      <c r="V26">
+        <v>0.07157509953412279</v>
+      </c>
+      <c r="W26">
+        <v>0.1705516542155817</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>0.25562535547901</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1382338171289194</v>
+      </c>
+      <c r="C27">
+        <v>22.44494784668633</v>
+      </c>
+      <c r="D27">
+        <v>27.31744784668633</v>
+      </c>
+      <c r="E27">
+        <v>4.362500000000001</v>
+      </c>
+      <c r="F27">
+        <v>11.7125</v>
+      </c>
+      <c r="G27">
+        <v>6.84</v>
+      </c>
+      <c r="H27">
+        <v>39.5</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.879</v>
+      </c>
+      <c r="K27">
+        <v>0.351</v>
+      </c>
+      <c r="L27">
+        <v>0.528</v>
+      </c>
+      <c r="M27">
+        <v>2.15158625</v>
+      </c>
+      <c r="N27">
+        <v>-1.62358625</v>
+      </c>
+      <c r="O27">
+        <v>-0.4546041500000001</v>
+      </c>
+      <c r="P27">
+        <v>-1.1689821</v>
+      </c>
+      <c r="Q27">
+        <v>-0.8179821</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1272858934895731</v>
+      </c>
+      <c r="T27">
+        <v>2.26871940442074</v>
+      </c>
+      <c r="U27">
+        <v>0.1837</v>
+      </c>
+      <c r="V27">
+        <v>0.06871209555275788</v>
+      </c>
+      <c r="W27">
+        <v>0.1710775880469584</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>0.2454003412598496</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1399778171289194</v>
+      </c>
+      <c r="C28">
+        <v>21.61187465368893</v>
+      </c>
+      <c r="D28">
+        <v>26.95287465368893</v>
+      </c>
+      <c r="E28">
+        <v>4.831000000000001</v>
+      </c>
+      <c r="F28">
+        <v>12.181</v>
+      </c>
+      <c r="G28">
+        <v>6.84</v>
+      </c>
+      <c r="H28">
+        <v>39.5</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.879</v>
+      </c>
+      <c r="K28">
+        <v>0.351</v>
+      </c>
+      <c r="L28">
+        <v>0.528</v>
+      </c>
+      <c r="M28">
+        <v>2.2376497</v>
+      </c>
+      <c r="N28">
+        <v>-1.7096497</v>
+      </c>
+      <c r="O28">
+        <v>-0.4787019160000002</v>
+      </c>
+      <c r="P28">
+        <v>-1.230947784</v>
+      </c>
+      <c r="Q28">
+        <v>-0.8799477840000003</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1288802974556484</v>
+      </c>
+      <c r="T28">
+        <v>2.29937777475075</v>
+      </c>
+      <c r="U28">
+        <v>0.1837</v>
+      </c>
+      <c r="V28">
+        <v>0.06606932264688258</v>
+      </c>
+      <c r="W28">
+        <v>0.1715630654297677</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>0.2359618665960092</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1417218171289194</v>
+      </c>
+      <c r="C29">
+        <v>20.78840434430047</v>
+      </c>
+      <c r="D29">
+        <v>26.59790434430047</v>
+      </c>
+      <c r="E29">
+        <v>5.299500000000002</v>
+      </c>
+      <c r="F29">
+        <v>12.6495</v>
+      </c>
+      <c r="G29">
+        <v>6.84</v>
+      </c>
+      <c r="H29">
+        <v>39.5</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.879</v>
+      </c>
+      <c r="K29">
+        <v>0.351</v>
+      </c>
+      <c r="L29">
+        <v>0.528</v>
+      </c>
+      <c r="M29">
+        <v>2.32371315</v>
+      </c>
+      <c r="N29">
+        <v>-1.79571315</v>
+      </c>
+      <c r="O29">
+        <v>-0.502799682</v>
+      </c>
+      <c r="P29">
+        <v>-1.292913468</v>
+      </c>
+      <c r="Q29">
+        <v>-0.9419134680000001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1305183837221641</v>
+      </c>
+      <c r="T29">
+        <v>2.330876100432268</v>
+      </c>
+      <c r="U29">
+        <v>0.1837</v>
+      </c>
+      <c r="V29">
+        <v>0.06362231069699804</v>
+      </c>
+      <c r="W29">
+        <v>0.1720125815249615</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>0.2272225382035644</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1434658171289194</v>
+      </c>
+      <c r="C30">
+        <v>19.97416243947619</v>
+      </c>
+      <c r="D30">
+        <v>26.25216243947619</v>
+      </c>
+      <c r="E30">
+        <v>5.768000000000002</v>
+      </c>
+      <c r="F30">
+        <v>13.118</v>
+      </c>
+      <c r="G30">
+        <v>6.84</v>
+      </c>
+      <c r="H30">
+        <v>39.5</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.879</v>
+      </c>
+      <c r="K30">
+        <v>0.351</v>
+      </c>
+      <c r="L30">
+        <v>0.528</v>
+      </c>
+      <c r="M30">
+        <v>2.4097766</v>
+      </c>
+      <c r="N30">
+        <v>-1.8817766</v>
+      </c>
+      <c r="O30">
+        <v>-0.5268974480000002</v>
+      </c>
+      <c r="P30">
+        <v>-1.354879152</v>
+      </c>
+      <c r="Q30">
+        <v>-1.003879152</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1322019723849719</v>
+      </c>
+      <c r="T30">
+        <v>2.363249379604938</v>
+      </c>
+      <c r="U30">
+        <v>0.1837</v>
+      </c>
+      <c r="V30">
+        <v>0.06135008531496239</v>
+      </c>
+      <c r="W30">
+        <v>0.1724299893276414</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>0.2191074475534371</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1452098171289194</v>
+      </c>
+      <c r="C31">
+        <v>19.16879368148928</v>
+      </c>
+      <c r="D31">
+        <v>25.91529368148928</v>
+      </c>
+      <c r="E31">
+        <v>6.236499999999999</v>
+      </c>
+      <c r="F31">
+        <v>13.5865</v>
+      </c>
+      <c r="G31">
+        <v>6.84</v>
+      </c>
+      <c r="H31">
+        <v>39.5</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.879</v>
+      </c>
+      <c r="K31">
+        <v>0.351</v>
+      </c>
+      <c r="L31">
+        <v>0.528</v>
+      </c>
+      <c r="M31">
+        <v>2.49584005</v>
+      </c>
+      <c r="N31">
+        <v>-1.96784005</v>
+      </c>
+      <c r="O31">
+        <v>-0.5509952140000001</v>
+      </c>
+      <c r="P31">
+        <v>-1.416844836</v>
+      </c>
+      <c r="Q31">
+        <v>-1.065844836</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1339329860805349</v>
+      </c>
+      <c r="T31">
+        <v>2.396534582134585</v>
+      </c>
+      <c r="U31">
+        <v>0.1837</v>
+      </c>
+      <c r="V31">
+        <v>0.05923456513168784</v>
+      </c>
+      <c r="W31">
+        <v>0.172818610385309</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>0.2115520183274565</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.1469538171289194</v>
+      </c>
+      <c r="C32">
+        <v>18.37196081631208</v>
+      </c>
+      <c r="D32">
+        <v>25.58696081631208</v>
+      </c>
+      <c r="E32">
+        <v>6.705</v>
+      </c>
+      <c r="F32">
+        <v>14.055</v>
+      </c>
+      <c r="G32">
+        <v>6.84</v>
+      </c>
+      <c r="H32">
+        <v>39.5</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.879</v>
+      </c>
+      <c r="K32">
+        <v>0.351</v>
+      </c>
+      <c r="L32">
+        <v>0.528</v>
+      </c>
+      <c r="M32">
+        <v>2.5819035</v>
+      </c>
+      <c r="N32">
+        <v>-2.0539035</v>
+      </c>
+      <c r="O32">
+        <v>-0.5750929800000001</v>
+      </c>
+      <c r="P32">
+        <v>-1.47881052</v>
+      </c>
+      <c r="Q32">
+        <v>-1.12781052</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1357134573102569</v>
+      </c>
+      <c r="T32">
+        <v>2.430770790450794</v>
+      </c>
+      <c r="U32">
+        <v>0.1837</v>
+      </c>
+      <c r="V32">
+        <v>0.05726007962729824</v>
+      </c>
+      <c r="W32">
+        <v>0.1731813233724653</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>0.204500284383208</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1486978171289194</v>
+      </c>
+      <c r="C33">
+        <v>17.58334346739851</v>
+      </c>
+      <c r="D33">
+        <v>25.2668434673985</v>
+      </c>
+      <c r="E33">
+        <v>7.173500000000001</v>
+      </c>
+      <c r="F33">
+        <v>14.5235</v>
+      </c>
+      <c r="G33">
+        <v>6.84</v>
+      </c>
+      <c r="H33">
+        <v>39.5</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.879</v>
+      </c>
+      <c r="K33">
+        <v>0.351</v>
+      </c>
+      <c r="L33">
+        <v>0.528</v>
+      </c>
+      <c r="M33">
+        <v>2.66796695</v>
+      </c>
+      <c r="N33">
+        <v>-2.13996695</v>
+      </c>
+      <c r="O33">
+        <v>-0.5991907460000001</v>
+      </c>
+      <c r="P33">
+        <v>-1.540776204</v>
+      </c>
+      <c r="Q33">
+        <v>-1.189776204</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1375455364017099</v>
+      </c>
+      <c r="T33">
+        <v>2.46599935263124</v>
+      </c>
+      <c r="U33">
+        <v>0.1837</v>
+      </c>
+      <c r="V33">
+        <v>0.05541298028448216</v>
+      </c>
+      <c r="W33">
+        <v>0.1735206355217406</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>0.1979035010160077</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1504418171289194</v>
+      </c>
+      <c r="C34">
+        <v>16.8026370929624</v>
+      </c>
+      <c r="D34">
+        <v>24.9546370929624</v>
+      </c>
+      <c r="E34">
+        <v>7.642000000000001</v>
+      </c>
+      <c r="F34">
+        <v>14.992</v>
+      </c>
+      <c r="G34">
+        <v>6.84</v>
+      </c>
+      <c r="H34">
+        <v>39.5</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.879</v>
+      </c>
+      <c r="K34">
+        <v>0.351</v>
+      </c>
+      <c r="L34">
+        <v>0.528</v>
+      </c>
+      <c r="M34">
+        <v>2.7540304</v>
+      </c>
+      <c r="N34">
+        <v>-2.2260304</v>
+      </c>
+      <c r="O34">
+        <v>-0.623288512</v>
+      </c>
+      <c r="P34">
+        <v>-1.602741888</v>
+      </c>
+      <c r="Q34">
+        <v>-1.251741888</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1394315001723233</v>
+      </c>
+      <c r="T34">
+        <v>2.502264048993464</v>
+      </c>
+      <c r="U34">
+        <v>0.1837</v>
+      </c>
+      <c r="V34">
+        <v>0.0536813246505921</v>
+      </c>
+      <c r="W34">
+        <v>0.1738387406616863</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.1917190166092575</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1521858171289194</v>
+      </c>
+      <c r="C35">
+        <v>16.02955201961773</v>
+      </c>
+      <c r="D35">
+        <v>24.65005201961772</v>
+      </c>
+      <c r="E35">
+        <v>8.110500000000002</v>
+      </c>
+      <c r="F35">
+        <v>15.4605</v>
+      </c>
+      <c r="G35">
+        <v>6.84</v>
+      </c>
+      <c r="H35">
+        <v>39.5</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.879</v>
+      </c>
+      <c r="K35">
+        <v>0.351</v>
+      </c>
+      <c r="L35">
+        <v>0.528</v>
+      </c>
+      <c r="M35">
+        <v>2.84009385</v>
+      </c>
+      <c r="N35">
+        <v>-2.31209385</v>
+      </c>
+      <c r="O35">
+        <v>-0.6473862780000001</v>
+      </c>
+      <c r="P35">
+        <v>-1.664707572</v>
+      </c>
+      <c r="Q35">
+        <v>-1.313707572</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1413737613689251</v>
+      </c>
+      <c r="T35">
+        <v>2.539611273605307</v>
+      </c>
+      <c r="U35">
+        <v>0.1837</v>
+      </c>
+      <c r="V35">
+        <v>0.0520546178429984</v>
+      </c>
+      <c r="W35">
+        <v>0.1741375667022412</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.1859093494392799</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1539298171289194</v>
+      </c>
+      <c r="C36">
+        <v>15.26381254593511</v>
+      </c>
+      <c r="D36">
+        <v>24.35281254593511</v>
+      </c>
+      <c r="E36">
+        <v>8.579000000000002</v>
+      </c>
+      <c r="F36">
+        <v>15.929</v>
+      </c>
+      <c r="G36">
+        <v>6.84</v>
+      </c>
+      <c r="H36">
+        <v>39.5</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.879</v>
+      </c>
+      <c r="K36">
+        <v>0.351</v>
+      </c>
+      <c r="L36">
+        <v>0.528</v>
+      </c>
+      <c r="M36">
+        <v>2.9261573</v>
+      </c>
+      <c r="N36">
+        <v>-2.3981573</v>
+      </c>
+      <c r="O36">
+        <v>-0.6714840440000002</v>
+      </c>
+      <c r="P36">
+        <v>-1.726673256</v>
+      </c>
+      <c r="Q36">
+        <v>-1.375673256</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.143374878965424</v>
+      </c>
+      <c r="T36">
+        <v>2.578090232296296</v>
+      </c>
+      <c r="U36">
+        <v>0.1837</v>
+      </c>
+      <c r="V36">
+        <v>0.0505235996711455</v>
+      </c>
+      <c r="W36">
+        <v>0.1744188147404106</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.1804414273969482</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1556738171289194</v>
+      </c>
+      <c r="C37">
+        <v>14.50515611008357</v>
+      </c>
+      <c r="D37">
+        <v>24.06265611008357</v>
+      </c>
+      <c r="E37">
+        <v>9.047500000000001</v>
+      </c>
+      <c r="F37">
+        <v>16.3975</v>
+      </c>
+      <c r="G37">
+        <v>6.84</v>
+      </c>
+      <c r="H37">
+        <v>39.5</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.879</v>
+      </c>
+      <c r="K37">
+        <v>0.351</v>
+      </c>
+      <c r="L37">
+        <v>0.528</v>
+      </c>
+      <c r="M37">
+        <v>3.01222075</v>
+      </c>
+      <c r="N37">
+        <v>-2.48422075</v>
+      </c>
+      <c r="O37">
+        <v>-0.6955818100000001</v>
+      </c>
+      <c r="P37">
+        <v>-1.78863894</v>
+      </c>
+      <c r="Q37">
+        <v>-1.43763894</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1454375694110459</v>
+      </c>
+      <c r="T37">
+        <v>2.617753158947008</v>
+      </c>
+      <c r="U37">
+        <v>0.1837</v>
+      </c>
+      <c r="V37">
+        <v>0.04908006825196991</v>
+      </c>
+      <c r="W37">
+        <v>0.1746839914621131</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.1752859580427497</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1574178171289194</v>
+      </c>
+      <c r="C38">
+        <v>13.75333251627541</v>
+      </c>
+      <c r="D38">
+        <v>23.77933251627541</v>
+      </c>
+      <c r="E38">
+        <v>9.516</v>
+      </c>
+      <c r="F38">
+        <v>16.866</v>
+      </c>
+      <c r="G38">
+        <v>6.84</v>
+      </c>
+      <c r="H38">
+        <v>39.5</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.879</v>
+      </c>
+      <c r="K38">
+        <v>0.351</v>
+      </c>
+      <c r="L38">
+        <v>0.528</v>
+      </c>
+      <c r="M38">
+        <v>3.0982842</v>
+      </c>
+      <c r="N38">
+        <v>-2.5702842</v>
+      </c>
+      <c r="O38">
+        <v>-0.7196795760000001</v>
+      </c>
+      <c r="P38">
+        <v>-1.850604624</v>
+      </c>
+      <c r="Q38">
+        <v>-1.499604624</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1475647189330935</v>
+      </c>
+      <c r="T38">
+        <v>2.658655552055555</v>
+      </c>
+      <c r="U38">
+        <v>0.1837</v>
+      </c>
+      <c r="V38">
+        <v>0.04771673302274853</v>
+      </c>
+      <c r="W38">
+        <v>0.1749344361437211</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.1704169036526733</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1591618171289194</v>
+      </c>
+      <c r="C39">
+        <v>13.00810321522397</v>
+      </c>
+      <c r="D39">
+        <v>23.50260321522397</v>
+      </c>
+      <c r="E39">
+        <v>9.984500000000002</v>
+      </c>
+      <c r="F39">
+        <v>17.3345</v>
+      </c>
+      <c r="G39">
+        <v>6.84</v>
+      </c>
+      <c r="H39">
+        <v>39.5</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.879</v>
+      </c>
+      <c r="K39">
+        <v>0.351</v>
+      </c>
+      <c r="L39">
+        <v>0.528</v>
+      </c>
+      <c r="M39">
+        <v>3.18434765</v>
+      </c>
+      <c r="N39">
+        <v>-2.65634765</v>
+      </c>
+      <c r="O39">
+        <v>-0.7437773420000001</v>
+      </c>
+      <c r="P39">
+        <v>-1.912570308</v>
+      </c>
+      <c r="Q39">
+        <v>-1.561570308</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1497593970113965</v>
+      </c>
+      <c r="T39">
+        <v>2.700856433834215</v>
+      </c>
+      <c r="U39">
+        <v>0.1837</v>
+      </c>
+      <c r="V39">
+        <v>0.04642709158970127</v>
+      </c>
+      <c r="W39">
+        <v>0.1751713432749719</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.1658110413917903</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1609058171289194</v>
+      </c>
+      <c r="C40">
+        <v>12.26924063426511</v>
+      </c>
+      <c r="D40">
+        <v>23.23224063426511</v>
+      </c>
+      <c r="E40">
+        <v>10.453</v>
+      </c>
+      <c r="F40">
+        <v>17.803</v>
+      </c>
+      <c r="G40">
+        <v>6.84</v>
+      </c>
+      <c r="H40">
+        <v>39.5</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.879</v>
+      </c>
+      <c r="K40">
+        <v>0.351</v>
+      </c>
+      <c r="L40">
+        <v>0.528</v>
+      </c>
+      <c r="M40">
+        <v>3.2704111</v>
+      </c>
+      <c r="N40">
+        <v>-2.7424111</v>
+      </c>
+      <c r="O40">
+        <v>-0.767875108</v>
+      </c>
+      <c r="P40">
+        <v>-1.974535992</v>
+      </c>
+      <c r="Q40">
+        <v>-1.623535992</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1520248711567417</v>
+      </c>
+      <c r="T40">
+        <v>2.744418634379928</v>
+      </c>
+      <c r="U40">
+        <v>0.1837</v>
+      </c>
+      <c r="V40">
+        <v>0.04520532602155124</v>
+      </c>
+      <c r="W40">
+        <v>0.175395781609841</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.1614475929341116</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1626498171289194</v>
+      </c>
+      <c r="C41">
+        <v>11.53652755318857</v>
+      </c>
+      <c r="D41">
+        <v>22.96802755318857</v>
+      </c>
+      <c r="E41">
+        <v>10.9215</v>
+      </c>
+      <c r="F41">
+        <v>18.2715</v>
+      </c>
+      <c r="G41">
+        <v>6.84</v>
+      </c>
+      <c r="H41">
+        <v>39.5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.879</v>
+      </c>
+      <c r="K41">
+        <v>0.351</v>
+      </c>
+      <c r="L41">
+        <v>0.528</v>
+      </c>
+      <c r="M41">
+        <v>3.35647455</v>
+      </c>
+      <c r="N41">
+        <v>-2.82847455</v>
+      </c>
+      <c r="O41">
+        <v>-0.7919728740000002</v>
+      </c>
+      <c r="P41">
+        <v>-2.036501676</v>
+      </c>
+      <c r="Q41">
+        <v>-1.685501676</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1543646231429177</v>
+      </c>
+      <c r="T41">
+        <v>2.789409103795993</v>
+      </c>
+      <c r="U41">
+        <v>0.1837</v>
+      </c>
+      <c r="V41">
+        <v>0.04404621509792172</v>
+      </c>
+      <c r="W41">
+        <v>0.1756087102865118</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.1573079110640061</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1643938171289194</v>
+      </c>
+      <c r="C42">
+        <v>10.80975652218115</v>
+      </c>
+      <c r="D42">
+        <v>22.70975652218115</v>
+      </c>
+      <c r="E42">
+        <v>11.39</v>
+      </c>
+      <c r="F42">
+        <v>18.74</v>
+      </c>
+      <c r="G42">
+        <v>6.84</v>
+      </c>
+      <c r="H42">
+        <v>39.5</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.879</v>
+      </c>
+      <c r="K42">
+        <v>0.351</v>
+      </c>
+      <c r="L42">
+        <v>0.528</v>
+      </c>
+      <c r="M42">
+        <v>3.442538</v>
+      </c>
+      <c r="N42">
+        <v>-2.914538</v>
+      </c>
+      <c r="O42">
+        <v>-0.8160706400000002</v>
+      </c>
+      <c r="P42">
+        <v>-2.09846736</v>
+      </c>
+      <c r="Q42">
+        <v>-1.74746736</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1567823668619664</v>
+      </c>
+      <c r="T42">
+        <v>2.835899255525926</v>
+      </c>
+      <c r="U42">
+        <v>0.1837</v>
+      </c>
+      <c r="V42">
+        <v>0.04294505972047367</v>
+      </c>
+      <c r="W42">
+        <v>0.175810992529349</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.153375213287406</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1661378171289194</v>
+      </c>
+      <c r="C43">
+        <v>10.08872931860417</v>
+      </c>
+      <c r="D43">
+        <v>22.45722931860417</v>
+      </c>
+      <c r="E43">
+        <v>11.8585</v>
+      </c>
+      <c r="F43">
+        <v>19.2085</v>
+      </c>
+      <c r="G43">
+        <v>6.84</v>
+      </c>
+      <c r="H43">
+        <v>39.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.879</v>
+      </c>
+      <c r="K43">
+        <v>0.351</v>
+      </c>
+      <c r="L43">
+        <v>0.528</v>
+      </c>
+      <c r="M43">
+        <v>3.52860145</v>
+      </c>
+      <c r="N43">
+        <v>-3.00060145</v>
+      </c>
+      <c r="O43">
+        <v>-0.8401684060000001</v>
+      </c>
+      <c r="P43">
+        <v>-2.160433044</v>
+      </c>
+      <c r="Q43">
+        <v>-1.809433044</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.15928206799522</v>
+      </c>
+      <c r="T43">
+        <v>2.883965344602637</v>
+      </c>
+      <c r="U43">
+        <v>0.1837</v>
+      </c>
+      <c r="V43">
+        <v>0.04189761923948651</v>
+      </c>
+      <c r="W43">
+        <v>0.1760034073457063</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.1496343544267376</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1678818171289194</v>
+      </c>
+      <c r="C44">
+        <v>9.373256439615115</v>
+      </c>
+      <c r="D44">
+        <v>22.21025643961512</v>
+      </c>
+      <c r="E44">
+        <v>12.327</v>
+      </c>
+      <c r="F44">
+        <v>19.677</v>
+      </c>
+      <c r="G44">
+        <v>6.84</v>
+      </c>
+      <c r="H44">
+        <v>39.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.879</v>
+      </c>
+      <c r="K44">
+        <v>0.351</v>
+      </c>
+      <c r="L44">
+        <v>0.528</v>
+      </c>
+      <c r="M44">
+        <v>3.6146649</v>
+      </c>
+      <c r="N44">
+        <v>-3.0866649</v>
+      </c>
+      <c r="O44">
+        <v>-0.8642661720000001</v>
+      </c>
+      <c r="P44">
+        <v>-2.222398728</v>
+      </c>
+      <c r="Q44">
+        <v>-1.871398728</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1618679657192755</v>
+      </c>
+      <c r="T44">
+        <v>2.933688885026819</v>
+      </c>
+      <c r="U44">
+        <v>0.1837</v>
+      </c>
+      <c r="V44">
+        <v>0.0409000568766416</v>
+      </c>
+      <c r="W44">
+        <v>0.1761866595517609</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.1460716317022914</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1696258171289194</v>
+      </c>
+      <c r="C45">
+        <v>8.663156627904545</v>
+      </c>
+      <c r="D45">
+        <v>21.96865662790455</v>
+      </c>
+      <c r="E45">
+        <v>12.7955</v>
+      </c>
+      <c r="F45">
+        <v>20.1455</v>
+      </c>
+      <c r="G45">
+        <v>6.84</v>
+      </c>
+      <c r="H45">
+        <v>39.5</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.879</v>
+      </c>
+      <c r="K45">
+        <v>0.351</v>
+      </c>
+      <c r="L45">
+        <v>0.528</v>
+      </c>
+      <c r="M45">
+        <v>3.70072835</v>
+      </c>
+      <c r="N45">
+        <v>-3.17272835</v>
+      </c>
+      <c r="O45">
+        <v>-0.8883639380000001</v>
+      </c>
+      <c r="P45">
+        <v>-2.284364412</v>
+      </c>
+      <c r="Q45">
+        <v>-1.933364412</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1645445966968067</v>
+      </c>
+      <c r="T45">
+        <v>2.985157111079922</v>
+      </c>
+      <c r="U45">
+        <v>0.1837</v>
+      </c>
+      <c r="V45">
+        <v>0.03994889276323133</v>
+      </c>
+      <c r="W45">
+        <v>0.1763613883993944</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.1426746170115404</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1713698171289194</v>
+      </c>
+      <c r="C46">
+        <v>7.958256428053708</v>
+      </c>
+      <c r="D46">
+        <v>21.73225642805371</v>
+      </c>
+      <c r="E46">
+        <v>13.264</v>
+      </c>
+      <c r="F46">
+        <v>20.614</v>
+      </c>
+      <c r="G46">
+        <v>6.84</v>
+      </c>
+      <c r="H46">
+        <v>39.5</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.879</v>
+      </c>
+      <c r="K46">
+        <v>0.351</v>
+      </c>
+      <c r="L46">
+        <v>0.528</v>
+      </c>
+      <c r="M46">
+        <v>3.7867918</v>
+      </c>
+      <c r="N46">
+        <v>-3.2587918</v>
+      </c>
+      <c r="O46">
+        <v>-0.912461704</v>
+      </c>
+      <c r="P46">
+        <v>-2.346330096</v>
+      </c>
+      <c r="Q46">
+        <v>-1.995330096</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1673168216378211</v>
+      </c>
+      <c r="T46">
+        <v>3.038463488063492</v>
+      </c>
+      <c r="U46">
+        <v>0.1837</v>
+      </c>
+      <c r="V46">
+        <v>0.0390409633822488</v>
+      </c>
+      <c r="W46">
+        <v>0.1765281750266809</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.13943201207946</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1731138171289194</v>
+      </c>
+      <c r="C47">
+        <v>7.25838977123075</v>
+      </c>
+      <c r="D47">
+        <v>21.50088977123075</v>
+      </c>
+      <c r="E47">
+        <v>13.7325</v>
+      </c>
+      <c r="F47">
+        <v>21.0825</v>
+      </c>
+      <c r="G47">
+        <v>6.84</v>
+      </c>
+      <c r="H47">
+        <v>39.5</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.879</v>
+      </c>
+      <c r="K47">
+        <v>0.351</v>
+      </c>
+      <c r="L47">
+        <v>0.528</v>
+      </c>
+      <c r="M47">
+        <v>3.87285525</v>
+      </c>
+      <c r="N47">
+        <v>-3.34485525</v>
+      </c>
+      <c r="O47">
+        <v>-0.9365594700000001</v>
+      </c>
+      <c r="P47">
+        <v>-2.40829578</v>
+      </c>
+      <c r="Q47">
+        <v>-2.05729578</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1701898547585088</v>
+      </c>
+      <c r="T47">
+        <v>3.093708278755555</v>
+      </c>
+      <c r="U47">
+        <v>0.1837</v>
+      </c>
+      <c r="V47">
+        <v>0.03817338641819883</v>
+      </c>
+      <c r="W47">
+        <v>0.1766875489149769</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.1363335229221386</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1748578171289194</v>
+      </c>
+      <c r="C48">
+        <v>6.563397586136119</v>
+      </c>
+      <c r="D48">
+        <v>21.27439758613612</v>
+      </c>
+      <c r="E48">
+        <v>14.201</v>
+      </c>
+      <c r="F48">
+        <v>21.551</v>
+      </c>
+      <c r="G48">
+        <v>6.84</v>
+      </c>
+      <c r="H48">
+        <v>39.5</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.879</v>
+      </c>
+      <c r="K48">
+        <v>0.351</v>
+      </c>
+      <c r="L48">
+        <v>0.528</v>
+      </c>
+      <c r="M48">
+        <v>3.9589187</v>
+      </c>
+      <c r="N48">
+        <v>-3.4309187</v>
+      </c>
+      <c r="O48">
+        <v>-0.9606572360000002</v>
+      </c>
+      <c r="P48">
+        <v>-2.470261464</v>
+      </c>
+      <c r="Q48">
+        <v>-2.119261464</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.173169296513296</v>
+      </c>
+      <c r="T48">
+        <v>3.150999172806584</v>
+      </c>
+      <c r="U48">
+        <v>0.1837</v>
+      </c>
+      <c r="V48">
+        <v>0.03734353019171624</v>
+      </c>
+      <c r="W48">
+        <v>0.1768399935037817</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.1333697506847008</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1766018171289194</v>
+      </c>
+      <c r="C49">
+        <v>5.873127434281578</v>
+      </c>
+      <c r="D49">
+        <v>21.05262743428158</v>
+      </c>
+      <c r="E49">
+        <v>14.6695</v>
+      </c>
+      <c r="F49">
+        <v>22.0195</v>
+      </c>
+      <c r="G49">
+        <v>6.84</v>
+      </c>
+      <c r="H49">
+        <v>39.5</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.879</v>
+      </c>
+      <c r="K49">
+        <v>0.351</v>
+      </c>
+      <c r="L49">
+        <v>0.528</v>
+      </c>
+      <c r="M49">
+        <v>4.04498215</v>
+      </c>
+      <c r="N49">
+        <v>-3.51698215</v>
+      </c>
+      <c r="O49">
+        <v>-0.9847550020000001</v>
+      </c>
+      <c r="P49">
+        <v>-2.532227148</v>
+      </c>
+      <c r="Q49">
+        <v>-2.181227148</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1762611700324148</v>
+      </c>
+      <c r="T49">
+        <v>3.21045198738784</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.03654898699614782</v>
+      </c>
+      <c r="W49">
+        <v>0.1769859510888077</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.1305320964148136</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1783458171289194</v>
+      </c>
+      <c r="C50">
+        <v>5.187433167845597</v>
+      </c>
+      <c r="D50">
+        <v>20.8354331678456</v>
+      </c>
+      <c r="E50">
+        <v>15.138</v>
+      </c>
+      <c r="F50">
+        <v>22.488</v>
+      </c>
+      <c r="G50">
+        <v>6.84</v>
+      </c>
+      <c r="H50">
+        <v>39.5</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.879</v>
+      </c>
+      <c r="K50">
+        <v>0.351</v>
+      </c>
+      <c r="L50">
+        <v>0.528</v>
+      </c>
+      <c r="M50">
+        <v>4.1310456</v>
+      </c>
+      <c r="N50">
+        <v>-3.6030456</v>
+      </c>
+      <c r="O50">
+        <v>-1.008852768</v>
+      </c>
+      <c r="P50">
+        <v>-2.594192832</v>
+      </c>
+      <c r="Q50">
+        <v>-2.243192832</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1794719617638073</v>
+      </c>
+      <c r="T50">
+        <v>3.27219144868376</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.0357875497670614</v>
+      </c>
+      <c r="W50">
+        <v>0.1771258271077908</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.127812677739505</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1800898171289194</v>
+      </c>
+      <c r="C51">
+        <v>4.506174608491353</v>
+      </c>
+      <c r="D51">
+        <v>20.62267460849136</v>
+      </c>
+      <c r="E51">
+        <v>15.6065</v>
+      </c>
+      <c r="F51">
+        <v>22.9565</v>
+      </c>
+      <c r="G51">
+        <v>6.84</v>
+      </c>
+      <c r="H51">
+        <v>39.5</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.879</v>
+      </c>
+      <c r="K51">
+        <v>0.351</v>
+      </c>
+      <c r="L51">
+        <v>0.528</v>
+      </c>
+      <c r="M51">
+        <v>4.21710905</v>
+      </c>
+      <c r="N51">
+        <v>-3.68910905</v>
+      </c>
+      <c r="O51">
+        <v>-1.032950534</v>
+      </c>
+      <c r="P51">
+        <v>-2.656158516</v>
+      </c>
+      <c r="Q51">
+        <v>-2.305158516</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.182808666896431</v>
+      </c>
+      <c r="T51">
+        <v>3.336352065324618</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.03505719160854993</v>
+      </c>
+      <c r="W51">
+        <v>0.1772599939015094</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.1252042557448212</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1818338171289194</v>
+      </c>
+      <c r="C52">
+        <v>3.829217245664129</v>
+      </c>
+      <c r="D52">
+        <v>20.41421724566413</v>
+      </c>
+      <c r="E52">
+        <v>16.075</v>
+      </c>
+      <c r="F52">
+        <v>23.425</v>
+      </c>
+      <c r="G52">
+        <v>6.84</v>
+      </c>
+      <c r="H52">
+        <v>39.5</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.879</v>
+      </c>
+      <c r="K52">
+        <v>0.351</v>
+      </c>
+      <c r="L52">
+        <v>0.528</v>
+      </c>
+      <c r="M52">
+        <v>4.303172500000001</v>
+      </c>
+      <c r="N52">
+        <v>-3.7751725</v>
+      </c>
+      <c r="O52">
+        <v>-1.0570483</v>
+      </c>
+      <c r="P52">
+        <v>-2.7181242</v>
+      </c>
+      <c r="Q52">
+        <v>-2.3671242</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1862788402343596</v>
+      </c>
+      <c r="T52">
+        <v>3.403079106631111</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.03435604777637894</v>
+      </c>
+      <c r="W52">
+        <v>0.1773887940234792</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.1227001706299248</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1835778171289194</v>
+      </c>
+      <c r="C53">
+        <v>3.156431953003494</v>
+      </c>
+      <c r="D53">
+        <v>20.20993195300349</v>
+      </c>
+      <c r="E53">
+        <v>16.5435</v>
+      </c>
+      <c r="F53">
+        <v>23.8935</v>
+      </c>
+      <c r="G53">
+        <v>6.84</v>
+      </c>
+      <c r="H53">
+        <v>39.5</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.879</v>
+      </c>
+      <c r="K53">
+        <v>0.351</v>
+      </c>
+      <c r="L53">
+        <v>0.528</v>
+      </c>
+      <c r="M53">
+        <v>4.38923595</v>
+      </c>
+      <c r="N53">
+        <v>-3.86123595</v>
+      </c>
+      <c r="O53">
+        <v>-1.081146066</v>
+      </c>
+      <c r="P53">
+        <v>-2.780089884</v>
+      </c>
+      <c r="Q53">
+        <v>-2.429089884</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.189890653300367</v>
+      </c>
+      <c r="T53">
+        <v>3.472529700643991</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.03368239978076367</v>
+      </c>
+      <c r="W53">
+        <v>0.1775125431602737</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.1202942849312988</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1853218171289194</v>
+      </c>
+      <c r="C54">
+        <v>2.487694721614027</v>
+      </c>
+      <c r="D54">
+        <v>20.00969472161403</v>
+      </c>
+      <c r="E54">
+        <v>17.012</v>
+      </c>
+      <c r="F54">
+        <v>24.362</v>
+      </c>
+      <c r="G54">
+        <v>6.84</v>
+      </c>
+      <c r="H54">
+        <v>39.5</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.879</v>
+      </c>
+      <c r="K54">
+        <v>0.351</v>
+      </c>
+      <c r="L54">
+        <v>0.528</v>
+      </c>
+      <c r="M54">
+        <v>4.475299400000001</v>
+      </c>
+      <c r="N54">
+        <v>-3.947299400000001</v>
+      </c>
+      <c r="O54">
+        <v>-1.105243832</v>
+      </c>
+      <c r="P54">
+        <v>-2.842055568</v>
+      </c>
+      <c r="Q54">
+        <v>-2.491055568</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.193652958577458</v>
+      </c>
+      <c r="T54">
+        <v>3.544874069407407</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.03303466132344129</v>
+      </c>
+      <c r="W54">
+        <v>0.1776315327148839</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.1179809332980046</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1870658171289194</v>
+      </c>
+      <c r="C55">
+        <v>1.822886409036773</v>
+      </c>
+      <c r="D55">
+        <v>19.81338640903677</v>
+      </c>
+      <c r="E55">
+        <v>17.4805</v>
+      </c>
+      <c r="F55">
+        <v>24.8305</v>
+      </c>
+      <c r="G55">
+        <v>6.84</v>
+      </c>
+      <c r="H55">
+        <v>39.5</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.879</v>
+      </c>
+      <c r="K55">
+        <v>0.351</v>
+      </c>
+      <c r="L55">
+        <v>0.528</v>
+      </c>
+      <c r="M55">
+        <v>4.56136285</v>
+      </c>
+      <c r="N55">
+        <v>-4.03336285</v>
+      </c>
+      <c r="O55">
+        <v>-1.129341598</v>
+      </c>
+      <c r="P55">
+        <v>-2.904021252</v>
+      </c>
+      <c r="Q55">
+        <v>-2.553021252</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1975753619514464</v>
+      </c>
+      <c r="T55">
+        <v>3.62029692194799</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.03241136582677259</v>
+      </c>
+      <c r="W55">
+        <v>0.1777460320976219</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.1157548779527593</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1888098171289194</v>
+      </c>
+      <c r="C56">
+        <v>1.161892502853668</v>
+      </c>
+      <c r="D56">
+        <v>19.62089250285367</v>
+      </c>
+      <c r="E56">
+        <v>17.94900000000001</v>
+      </c>
+      <c r="F56">
+        <v>25.299</v>
+      </c>
+      <c r="G56">
+        <v>6.84</v>
+      </c>
+      <c r="H56">
+        <v>39.5</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.879</v>
+      </c>
+      <c r="K56">
+        <v>0.351</v>
+      </c>
+      <c r="L56">
+        <v>0.528</v>
+      </c>
+      <c r="M56">
+        <v>4.6474263</v>
+      </c>
+      <c r="N56">
+        <v>-4.119426300000001</v>
+      </c>
+      <c r="O56">
+        <v>-1.153439364</v>
+      </c>
+      <c r="P56">
+        <v>-2.965986936</v>
+      </c>
+      <c r="Q56">
+        <v>-2.614986936</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2016683046025648</v>
+      </c>
+      <c r="T56">
+        <v>3.698999028946859</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.03181115534849902</v>
+      </c>
+      <c r="W56">
+        <v>0.1778562907624807</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.1136112691017821</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1905538171289194</v>
+      </c>
+      <c r="C57">
+        <v>0.5046028979393711</v>
+      </c>
+      <c r="D57">
+        <v>19.43210289793937</v>
+      </c>
+      <c r="E57">
+        <v>18.4175</v>
+      </c>
+      <c r="F57">
+        <v>25.7675</v>
+      </c>
+      <c r="G57">
+        <v>6.84</v>
+      </c>
+      <c r="H57">
+        <v>39.5</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.879</v>
+      </c>
+      <c r="K57">
+        <v>0.351</v>
+      </c>
+      <c r="L57">
+        <v>0.528</v>
+      </c>
+      <c r="M57">
+        <v>4.73348975</v>
+      </c>
+      <c r="N57">
+        <v>-4.20548975</v>
+      </c>
+      <c r="O57">
+        <v>-1.17753713</v>
+      </c>
+      <c r="P57">
+        <v>-3.02795262</v>
+      </c>
+      <c r="Q57">
+        <v>-2.67695262</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2059431558159552</v>
+      </c>
+      <c r="T57">
+        <v>3.781199007367902</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.03123277070579904</v>
+      </c>
+      <c r="W57">
+        <v>0.1779625400213447</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.1115456096635681</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1922978171289194</v>
+      </c>
+      <c r="C58">
+        <v>-0.149088313549953</v>
+      </c>
+      <c r="D58">
+        <v>19.24691168645005</v>
+      </c>
+      <c r="E58">
+        <v>18.886</v>
+      </c>
+      <c r="F58">
+        <v>26.236</v>
+      </c>
+      <c r="G58">
+        <v>6.84</v>
+      </c>
+      <c r="H58">
+        <v>39.5</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.879</v>
+      </c>
+      <c r="K58">
+        <v>0.351</v>
+      </c>
+      <c r="L58">
+        <v>0.528</v>
+      </c>
+      <c r="M58">
+        <v>4.819553200000001</v>
+      </c>
+      <c r="N58">
+        <v>-4.291553200000001</v>
+      </c>
+      <c r="O58">
+        <v>-1.201634896</v>
+      </c>
+      <c r="P58">
+        <v>-3.089918304000001</v>
+      </c>
+      <c r="Q58">
+        <v>-2.738918304000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.210412318448136</v>
+      </c>
+      <c r="T58">
+        <v>3.867135348444444</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.03067504265748119</v>
+      </c>
+      <c r="W58">
+        <v>0.1780649946638207</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.1095537237767185</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1940418171289194</v>
+      </c>
+      <c r="C59">
+        <v>-0.7992830402925435</v>
+      </c>
+      <c r="D59">
+        <v>19.06521695970746</v>
+      </c>
+      <c r="E59">
+        <v>19.3545</v>
+      </c>
+      <c r="F59">
+        <v>26.7045</v>
+      </c>
+      <c r="G59">
+        <v>6.84</v>
+      </c>
+      <c r="H59">
+        <v>39.5</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.879</v>
+      </c>
+      <c r="K59">
+        <v>0.351</v>
+      </c>
+      <c r="L59">
+        <v>0.528</v>
+      </c>
+      <c r="M59">
+        <v>4.905616650000001</v>
+      </c>
+      <c r="N59">
+        <v>-4.37761665</v>
+      </c>
+      <c r="O59">
+        <v>-1.225732662</v>
+      </c>
+      <c r="P59">
+        <v>-3.151883988</v>
+      </c>
+      <c r="Q59">
+        <v>-2.800883988</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.2150893491097205</v>
+      </c>
+      <c r="T59">
+        <v>3.957068728640827</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.03013688401436749</v>
+      </c>
+      <c r="W59">
+        <v>0.1781638544065607</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.1076317286227411</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1957858171289194</v>
+      </c>
+      <c r="C60">
+        <v>-1.446079378800381</v>
+      </c>
+      <c r="D60">
+        <v>18.88692062119962</v>
+      </c>
+      <c r="E60">
+        <v>19.823</v>
+      </c>
+      <c r="F60">
+        <v>27.173</v>
+      </c>
+      <c r="G60">
+        <v>6.84</v>
+      </c>
+      <c r="H60">
+        <v>39.5</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.879</v>
+      </c>
+      <c r="K60">
+        <v>0.351</v>
+      </c>
+      <c r="L60">
+        <v>0.528</v>
+      </c>
+      <c r="M60">
+        <v>4.9916801</v>
+      </c>
+      <c r="N60">
+        <v>-4.463680099999999</v>
+      </c>
+      <c r="O60">
+        <v>-1.249830428</v>
+      </c>
+      <c r="P60">
+        <v>-3.213849671999999</v>
+      </c>
+      <c r="Q60">
+        <v>-2.862849671999999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2199890955170948</v>
+      </c>
+      <c r="T60">
+        <v>4.051284650751322</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.02961728256584392</v>
+      </c>
+      <c r="W60">
+        <v>0.1782593051926545</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.1057760091637283</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1975298171289194</v>
+      </c>
+      <c r="C61">
+        <v>-2.089571790022944</v>
+      </c>
+      <c r="D61">
+        <v>18.71192820997706</v>
+      </c>
+      <c r="E61">
+        <v>20.2915</v>
+      </c>
+      <c r="F61">
+        <v>27.6415</v>
+      </c>
+      <c r="G61">
+        <v>6.84</v>
+      </c>
+      <c r="H61">
+        <v>39.5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.879</v>
+      </c>
+      <c r="K61">
+        <v>0.351</v>
+      </c>
+      <c r="L61">
+        <v>0.528</v>
+      </c>
+      <c r="M61">
+        <v>5.07774355</v>
+      </c>
+      <c r="N61">
+        <v>-4.549743550000001</v>
+      </c>
+      <c r="O61">
+        <v>-1.273928194</v>
+      </c>
+      <c r="P61">
+        <v>-3.275815356</v>
+      </c>
+      <c r="Q61">
+        <v>-2.924815356</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.225127853944341</v>
+      </c>
+      <c r="T61">
+        <v>4.150096471501354</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.02911529472574487</v>
+      </c>
+      <c r="W61">
+        <v>0.1783515203588807</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.1039831954490887</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1992738171289194</v>
+      </c>
+      <c r="C62">
+        <v>-2.729851266223363</v>
+      </c>
+      <c r="D62">
+        <v>18.54014873377664</v>
+      </c>
+      <c r="E62">
+        <v>20.76</v>
+      </c>
+      <c r="F62">
+        <v>28.11</v>
+      </c>
+      <c r="G62">
+        <v>6.84</v>
+      </c>
+      <c r="H62">
+        <v>39.5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.879</v>
+      </c>
+      <c r="K62">
+        <v>0.351</v>
+      </c>
+      <c r="L62">
+        <v>0.528</v>
+      </c>
+      <c r="M62">
+        <v>5.163807</v>
+      </c>
+      <c r="N62">
+        <v>-4.635807</v>
+      </c>
+      <c r="O62">
+        <v>-1.29802596</v>
+      </c>
+      <c r="P62">
+        <v>-3.337781039999999</v>
+      </c>
+      <c r="Q62">
+        <v>-2.986781039999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2305235502929495</v>
+      </c>
+      <c r="T62">
+        <v>4.253848883288888</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.02863003981364912</v>
+      </c>
+      <c r="W62">
+        <v>0.1784406616862327</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.1022501421916041</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2010178171289194</v>
+      </c>
+      <c r="C63">
+        <v>-3.367005488746482</v>
+      </c>
+      <c r="D63">
+        <v>18.37149451125352</v>
+      </c>
+      <c r="E63">
+        <v>21.2285</v>
+      </c>
+      <c r="F63">
+        <v>28.5785</v>
+      </c>
+      <c r="G63">
+        <v>6.84</v>
+      </c>
+      <c r="H63">
+        <v>39.5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.879</v>
+      </c>
+      <c r="K63">
+        <v>0.351</v>
+      </c>
+      <c r="L63">
+        <v>0.528</v>
+      </c>
+      <c r="M63">
+        <v>5.24987045</v>
+      </c>
+      <c r="N63">
+        <v>-4.721870450000001</v>
+      </c>
+      <c r="O63">
+        <v>-1.322123726</v>
+      </c>
+      <c r="P63">
+        <v>-3.399746724000001</v>
+      </c>
+      <c r="Q63">
+        <v>-3.048746724000001</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2361959490184098</v>
+      </c>
+      <c r="T63">
+        <v>4.362921931578347</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.02816069489867127</v>
+      </c>
+      <c r="W63">
+        <v>0.1785268803471141</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.1005739103523973</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2027618171289194</v>
+      </c>
+      <c r="C64">
+        <v>-4.001118977253498</v>
+      </c>
+      <c r="D64">
+        <v>18.2058810227465</v>
+      </c>
+      <c r="E64">
+        <v>21.697</v>
+      </c>
+      <c r="F64">
+        <v>29.047</v>
+      </c>
+      <c r="G64">
+        <v>6.84</v>
+      </c>
+      <c r="H64">
+        <v>39.5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.879</v>
+      </c>
+      <c r="K64">
+        <v>0.351</v>
+      </c>
+      <c r="L64">
+        <v>0.528</v>
+      </c>
+      <c r="M64">
+        <v>5.335933900000001</v>
+      </c>
+      <c r="N64">
+        <v>-4.8079339</v>
+      </c>
+      <c r="O64">
+        <v>-1.346221492</v>
+      </c>
+      <c r="P64">
+        <v>-3.461712408</v>
+      </c>
+      <c r="Q64">
+        <v>-3.110712408</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2421668950452101</v>
+      </c>
+      <c r="T64">
+        <v>4.477735666619883</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.02770649014224108</v>
+      </c>
+      <c r="W64">
+        <v>0.1786103177608703</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.09895175050800398</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2045058171289194</v>
+      </c>
+      <c r="C65">
+        <v>-4.632273230956912</v>
+      </c>
+      <c r="D65">
+        <v>18.04322676904309</v>
+      </c>
+      <c r="E65">
+        <v>22.1655</v>
+      </c>
+      <c r="F65">
+        <v>29.5155</v>
+      </c>
+      <c r="G65">
+        <v>6.84</v>
+      </c>
+      <c r="H65">
+        <v>39.5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.879</v>
+      </c>
+      <c r="K65">
+        <v>0.351</v>
+      </c>
+      <c r="L65">
+        <v>0.528</v>
+      </c>
+      <c r="M65">
+        <v>5.42199735</v>
+      </c>
+      <c r="N65">
+        <v>-4.893997349999999</v>
+      </c>
+      <c r="O65">
+        <v>-1.370319258</v>
+      </c>
+      <c r="P65">
+        <v>-3.523678091999999</v>
+      </c>
+      <c r="Q65">
+        <v>-3.172678092</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2484605949112968</v>
+      </c>
+      <c r="T65">
+        <v>4.598755549501501</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.02726670458442773</v>
+      </c>
+      <c r="W65">
+        <v>0.1786911063678406</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.09738108780152765</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2062498171289194</v>
+      </c>
+      <c r="C66">
+        <v>-5.260546862351621</v>
+      </c>
+      <c r="D66">
+        <v>17.88345313764838</v>
+      </c>
+      <c r="E66">
+        <v>22.634</v>
+      </c>
+      <c r="F66">
+        <v>29.984</v>
+      </c>
+      <c r="G66">
+        <v>6.84</v>
+      </c>
+      <c r="H66">
+        <v>39.5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.879</v>
+      </c>
+      <c r="K66">
+        <v>0.351</v>
+      </c>
+      <c r="L66">
+        <v>0.528</v>
+      </c>
+      <c r="M66">
+        <v>5.5080608</v>
+      </c>
+      <c r="N66">
+        <v>-4.9800608</v>
+      </c>
+      <c r="O66">
+        <v>-1.394417024</v>
+      </c>
+      <c r="P66">
+        <v>-3.585643776</v>
+      </c>
+      <c r="Q66">
+        <v>-3.234643776</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2551039447699439</v>
+      </c>
+      <c r="T66">
+        <v>4.726498759209876</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.02684066232529605</v>
+      </c>
+      <c r="W66">
+        <v>0.1787693703308431</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.09585950830462864</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2079938171289194</v>
+      </c>
+      <c r="C67">
+        <v>-5.886015723903171</v>
+      </c>
+      <c r="D67">
+        <v>17.72648427609683</v>
+      </c>
+      <c r="E67">
+        <v>23.1025</v>
+      </c>
+      <c r="F67">
+        <v>30.4525</v>
+      </c>
+      <c r="G67">
+        <v>6.84</v>
+      </c>
+      <c r="H67">
+        <v>39.5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.879</v>
+      </c>
+      <c r="K67">
+        <v>0.351</v>
+      </c>
+      <c r="L67">
+        <v>0.528</v>
+      </c>
+      <c r="M67">
+        <v>5.59412425</v>
+      </c>
+      <c r="N67">
+        <v>-5.06612425</v>
+      </c>
+      <c r="O67">
+        <v>-1.41851479</v>
+      </c>
+      <c r="P67">
+        <v>-3.64760946</v>
+      </c>
+      <c r="Q67">
+        <v>-3.29660946</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2621269146205137</v>
+      </c>
+      <c r="T67">
+        <v>4.861541580901587</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.02642772905875303</v>
+      </c>
+      <c r="W67">
+        <v>0.1788452261719071</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.09438474663840379</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2097378171289194</v>
+      </c>
+      <c r="C68">
+        <v>-6.508753028122214</v>
+      </c>
+      <c r="D68">
+        <v>17.57224697187779</v>
+      </c>
+      <c r="E68">
+        <v>23.57100000000001</v>
+      </c>
+      <c r="F68">
+        <v>30.921</v>
+      </c>
+      <c r="G68">
+        <v>6.84</v>
+      </c>
+      <c r="H68">
+        <v>39.5</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.879</v>
+      </c>
+      <c r="K68">
+        <v>0.351</v>
+      </c>
+      <c r="L68">
+        <v>0.528</v>
+      </c>
+      <c r="M68">
+        <v>5.6801877</v>
+      </c>
+      <c r="N68">
+        <v>-5.152187700000001</v>
+      </c>
+      <c r="O68">
+        <v>-1.442612556</v>
+      </c>
+      <c r="P68">
+        <v>-3.709575144</v>
+      </c>
+      <c r="Q68">
+        <v>-3.358575144</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2695630003446465</v>
+      </c>
+      <c r="T68">
+        <v>5.004528097986928</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.0260273089214992</v>
+      </c>
+      <c r="W68">
+        <v>0.1789187833511206</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.09295467471963992</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2114818171289194</v>
+      </c>
+      <c r="C69">
+        <v>-7.128829461424388</v>
+      </c>
+      <c r="D69">
+        <v>17.42067053857561</v>
+      </c>
+      <c r="E69">
+        <v>24.0395</v>
+      </c>
+      <c r="F69">
+        <v>31.3895</v>
+      </c>
+      <c r="G69">
+        <v>6.84</v>
+      </c>
+      <c r="H69">
+        <v>39.5</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.879</v>
+      </c>
+      <c r="K69">
+        <v>0.351</v>
+      </c>
+      <c r="L69">
+        <v>0.528</v>
+      </c>
+      <c r="M69">
+        <v>5.76625115</v>
+      </c>
+      <c r="N69">
+        <v>-5.23825115</v>
+      </c>
+      <c r="O69">
+        <v>-1.466710322</v>
+      </c>
+      <c r="P69">
+        <v>-3.771540828</v>
+      </c>
+      <c r="Q69">
+        <v>-3.420540828</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2774497579308479</v>
+      </c>
+      <c r="T69">
+        <v>5.156180464592593</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.02563884162416339</v>
+      </c>
+      <c r="W69">
+        <v>0.1789901447936412</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.09156729151486931</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2132258171289194</v>
+      </c>
+      <c r="C70">
+        <v>-7.746313292147843</v>
+      </c>
+      <c r="D70">
+        <v>17.27168670785216</v>
+      </c>
+      <c r="E70">
+        <v>24.508</v>
+      </c>
+      <c r="F70">
+        <v>31.858</v>
+      </c>
+      <c r="G70">
+        <v>6.84</v>
+      </c>
+      <c r="H70">
+        <v>39.5</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.879</v>
+      </c>
+      <c r="K70">
+        <v>0.351</v>
+      </c>
+      <c r="L70">
+        <v>0.528</v>
+      </c>
+      <c r="M70">
+        <v>5.852314600000001</v>
+      </c>
+      <c r="N70">
+        <v>-5.324314600000001</v>
+      </c>
+      <c r="O70">
+        <v>-1.490808088000001</v>
+      </c>
+      <c r="P70">
+        <v>-3.833506512</v>
+      </c>
+      <c r="Q70">
+        <v>-3.482506512</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2858294378661869</v>
+      </c>
+      <c r="T70">
+        <v>5.317311104111111</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.02526179983557275</v>
+      </c>
+      <c r="W70">
+        <v>0.1790594073702053</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.09022071369847406</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2149698171289194</v>
+      </c>
+      <c r="C71">
+        <v>-8.361270473074939</v>
+      </c>
+      <c r="D71">
+        <v>17.12522952692506</v>
+      </c>
+      <c r="E71">
+        <v>24.9765</v>
+      </c>
+      <c r="F71">
+        <v>32.3265</v>
+      </c>
+      <c r="G71">
+        <v>6.84</v>
+      </c>
+      <c r="H71">
+        <v>39.5</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.879</v>
+      </c>
+      <c r="K71">
+        <v>0.351</v>
+      </c>
+      <c r="L71">
+        <v>0.528</v>
+      </c>
+      <c r="M71">
+        <v>5.938378050000001</v>
+      </c>
+      <c r="N71">
+        <v>-5.41037805</v>
+      </c>
+      <c r="O71">
+        <v>-1.514905854</v>
+      </c>
+      <c r="P71">
+        <v>-3.895472196</v>
+      </c>
+      <c r="Q71">
+        <v>-3.544472196</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2947497423134833</v>
+      </c>
+      <c r="T71">
+        <v>5.488837268759857</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.02489568679447749</v>
+      </c>
+      <c r="W71">
+        <v>0.1791266623358545</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.08891316712313402</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2167138171289194</v>
+      </c>
+      <c r="C72">
+        <v>-8.973764738781902</v>
+      </c>
+      <c r="D72">
+        <v>16.9812352612181</v>
+      </c>
+      <c r="E72">
+        <v>25.445</v>
+      </c>
+      <c r="F72">
+        <v>32.795</v>
+      </c>
+      <c r="G72">
+        <v>6.84</v>
+      </c>
+      <c r="H72">
+        <v>39.5</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.879</v>
+      </c>
+      <c r="K72">
+        <v>0.351</v>
+      </c>
+      <c r="L72">
+        <v>0.528</v>
+      </c>
+      <c r="M72">
+        <v>6.0244415</v>
+      </c>
+      <c r="N72">
+        <v>-5.4964415</v>
+      </c>
+      <c r="O72">
+        <v>-1.53900362</v>
+      </c>
+      <c r="P72">
+        <v>-3.95743788</v>
+      </c>
+      <c r="Q72">
+        <v>-3.60643788</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3042647337239328</v>
+      </c>
+      <c r="T72">
+        <v>5.671798511051852</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.02454003412598496</v>
+      </c>
+      <c r="W72">
+        <v>0.1791919957310566</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.08764297902137497</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2184578171289194</v>
+      </c>
+      <c r="C73">
+        <v>-9.583857698118013</v>
+      </c>
+      <c r="D73">
+        <v>16.83964230188199</v>
+      </c>
+      <c r="E73">
+        <v>25.9135</v>
+      </c>
+      <c r="F73">
+        <v>33.2635</v>
+      </c>
+      <c r="G73">
+        <v>6.84</v>
+      </c>
+      <c r="H73">
+        <v>39.5</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.879</v>
+      </c>
+      <c r="K73">
+        <v>0.351</v>
+      </c>
+      <c r="L73">
+        <v>0.528</v>
+      </c>
+      <c r="M73">
+        <v>6.11050495</v>
+      </c>
+      <c r="N73">
+        <v>-5.582504950000001</v>
+      </c>
+      <c r="O73">
+        <v>-1.563101386</v>
+      </c>
+      <c r="P73">
+        <v>-4.019403564</v>
+      </c>
+      <c r="Q73">
+        <v>-3.668403564</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.314435931438551</v>
+      </c>
+      <c r="T73">
+        <v>5.867377770053639</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.02419439984252038</v>
+      </c>
+      <c r="W73">
+        <v>0.179255488748929</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.08640857086614417</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2202018171289194</v>
+      </c>
+      <c r="C74">
+        <v>-10.19160892209646</v>
+      </c>
+      <c r="D74">
+        <v>16.70039107790354</v>
+      </c>
+      <c r="E74">
+        <v>26.382</v>
+      </c>
+      <c r="F74">
+        <v>33.732</v>
+      </c>
+      <c r="G74">
+        <v>6.84</v>
+      </c>
+      <c r="H74">
+        <v>39.5</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.879</v>
+      </c>
+      <c r="K74">
+        <v>0.351</v>
+      </c>
+      <c r="L74">
+        <v>0.528</v>
+      </c>
+      <c r="M74">
+        <v>6.1965684</v>
+      </c>
+      <c r="N74">
+        <v>-5.6685684</v>
+      </c>
+      <c r="O74">
+        <v>-1.587199152</v>
+      </c>
+      <c r="P74">
+        <v>-4.081369248</v>
+      </c>
+      <c r="Q74">
+        <v>-3.730369248</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3253336432756421</v>
+      </c>
+      <c r="T74">
+        <v>6.076926976126983</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.02385836651137426</v>
+      </c>
+      <c r="W74">
+        <v>0.1793172180718605</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.08520845182633674</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2219458171289194</v>
+      </c>
+      <c r="C75">
+        <v>-10.79707602746024</v>
+      </c>
+      <c r="D75">
+        <v>16.56342397253976</v>
+      </c>
+      <c r="E75">
+        <v>26.8505</v>
+      </c>
+      <c r="F75">
+        <v>34.2005</v>
+      </c>
+      <c r="G75">
+        <v>6.84</v>
+      </c>
+      <c r="H75">
+        <v>39.5</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.879</v>
+      </c>
+      <c r="K75">
+        <v>0.351</v>
+      </c>
+      <c r="L75">
+        <v>0.528</v>
+      </c>
+      <c r="M75">
+        <v>6.28263185</v>
+      </c>
+      <c r="N75">
+        <v>-5.754631849999999</v>
+      </c>
+      <c r="O75">
+        <v>-1.611296918</v>
+      </c>
+      <c r="P75">
+        <v>-4.143334931999999</v>
+      </c>
+      <c r="Q75">
+        <v>-3.792334931999999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3370385930265918</v>
+      </c>
+      <c r="T75">
+        <v>6.301998345613168</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.02353153957286229</v>
+      </c>
+      <c r="W75">
+        <v>0.1793772561804652</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.08404121276022258</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2236898171289194</v>
+      </c>
+      <c r="C76">
+        <v>-11.40031475616927</v>
+      </c>
+      <c r="D76">
+        <v>16.42868524383073</v>
+      </c>
+      <c r="E76">
+        <v>27.319</v>
+      </c>
+      <c r="F76">
+        <v>34.669</v>
+      </c>
+      <c r="G76">
+        <v>6.84</v>
+      </c>
+      <c r="H76">
+        <v>39.5</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.879</v>
+      </c>
+      <c r="K76">
+        <v>0.351</v>
+      </c>
+      <c r="L76">
+        <v>0.528</v>
+      </c>
+      <c r="M76">
+        <v>6.368695300000001</v>
+      </c>
+      <c r="N76">
+        <v>-5.8406953</v>
+      </c>
+      <c r="O76">
+        <v>-1.635394684</v>
+      </c>
+      <c r="P76">
+        <v>-4.205300616</v>
+      </c>
+      <c r="Q76">
+        <v>-3.854300616</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.3496439235276146</v>
+      </c>
+      <c r="T76">
+        <v>6.54438289736752</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.02321354579485064</v>
+      </c>
+      <c r="W76">
+        <v>0.1794356716374859</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.08290552069589519</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2254338171289194</v>
+      </c>
+      <c r="C77">
+        <v>-12.00137905103919</v>
+      </c>
+      <c r="D77">
+        <v>16.29612094896081</v>
+      </c>
+      <c r="E77">
+        <v>27.7875</v>
+      </c>
+      <c r="F77">
+        <v>35.1375</v>
+      </c>
+      <c r="G77">
+        <v>6.84</v>
+      </c>
+      <c r="H77">
+        <v>39.5</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.879</v>
+      </c>
+      <c r="K77">
+        <v>0.351</v>
+      </c>
+      <c r="L77">
+        <v>0.528</v>
+      </c>
+      <c r="M77">
+        <v>6.454758750000001</v>
+      </c>
+      <c r="N77">
+        <v>-5.926758750000001</v>
+      </c>
+      <c r="O77">
+        <v>-1.659492450000001</v>
+      </c>
+      <c r="P77">
+        <v>-4.267266300000001</v>
+      </c>
+      <c r="Q77">
+        <v>-3.916266300000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3632576804687193</v>
+      </c>
+      <c r="T77">
+        <v>6.806158213262222</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.02290403185091929</v>
+      </c>
+      <c r="W77">
+        <v>0.1794925293489861</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.08180011375328311</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2271778171289194</v>
+      </c>
+      <c r="C78">
+        <v>-12.60032112774758</v>
+      </c>
+      <c r="D78">
+        <v>16.16567887225242</v>
+      </c>
+      <c r="E78">
+        <v>28.256</v>
+      </c>
+      <c r="F78">
+        <v>35.606</v>
+      </c>
+      <c r="G78">
+        <v>6.84</v>
+      </c>
+      <c r="H78">
+        <v>39.5</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.879</v>
+      </c>
+      <c r="K78">
+        <v>0.351</v>
+      </c>
+      <c r="L78">
+        <v>0.528</v>
+      </c>
+      <c r="M78">
+        <v>6.5408222</v>
+      </c>
+      <c r="N78">
+        <v>-6.0128222</v>
+      </c>
+      <c r="O78">
+        <v>-1.683590216</v>
+      </c>
+      <c r="P78">
+        <v>-4.329231984</v>
+      </c>
+      <c r="Q78">
+        <v>-3.978231984</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3780059171549159</v>
+      </c>
+      <c r="T78">
+        <v>7.089748138814814</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.02260266301077562</v>
+      </c>
+      <c r="W78">
+        <v>0.1795478908049205</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.08072379646705574</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2289218171289194</v>
+      </c>
+      <c r="C79">
+        <v>-13.19719154340924</v>
+      </c>
+      <c r="D79">
+        <v>16.03730845659076</v>
+      </c>
+      <c r="E79">
+        <v>28.7245</v>
+      </c>
+      <c r="F79">
+        <v>36.0745</v>
+      </c>
+      <c r="G79">
+        <v>6.84</v>
+      </c>
+      <c r="H79">
+        <v>39.5</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.879</v>
+      </c>
+      <c r="K79">
+        <v>0.351</v>
+      </c>
+      <c r="L79">
+        <v>0.528</v>
+      </c>
+      <c r="M79">
+        <v>6.62688565</v>
+      </c>
+      <c r="N79">
+        <v>-6.09888565</v>
+      </c>
+      <c r="O79">
+        <v>-1.707687982</v>
+      </c>
+      <c r="P79">
+        <v>-4.391197667999999</v>
+      </c>
+      <c r="Q79">
+        <v>-4.040197667999999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3940366092051296</v>
+      </c>
+      <c r="T79">
+        <v>7.397998057893719</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.0223091219327136</v>
+      </c>
+      <c r="W79">
+        <v>0.1796018143009605</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.07967543547397715</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2306658171289194</v>
+      </c>
+      <c r="C80">
+        <v>-13.79203926190999</v>
+      </c>
+      <c r="D80">
+        <v>15.91096073809</v>
+      </c>
+      <c r="E80">
+        <v>29.193</v>
+      </c>
+      <c r="F80">
+        <v>36.543</v>
+      </c>
+      <c r="G80">
+        <v>6.84</v>
+      </c>
+      <c r="H80">
+        <v>39.5</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.879</v>
+      </c>
+      <c r="K80">
+        <v>0.351</v>
+      </c>
+      <c r="L80">
+        <v>0.528</v>
+      </c>
+      <c r="M80">
+        <v>6.7129491</v>
+      </c>
+      <c r="N80">
+        <v>-6.184949100000001</v>
+      </c>
+      <c r="O80">
+        <v>-1.731785748</v>
+      </c>
+      <c r="P80">
+        <v>-4.453163352000001</v>
+      </c>
+      <c r="Q80">
+        <v>-4.102163352000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4115246368962719</v>
+      </c>
+      <c r="T80">
+        <v>7.734270696888888</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.02202310754896086</v>
+      </c>
+      <c r="W80">
+        <v>0.1796543551432559</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.07865395553200305</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2324098171289194</v>
+      </c>
+      <c r="C81">
+        <v>-14.3849117161763</v>
+      </c>
+      <c r="D81">
+        <v>15.78658828382371</v>
+      </c>
+      <c r="E81">
+        <v>29.6615</v>
+      </c>
+      <c r="F81">
+        <v>37.01150000000001</v>
+      </c>
+      <c r="G81">
+        <v>6.84</v>
+      </c>
+      <c r="H81">
+        <v>39.5</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.879</v>
+      </c>
+      <c r="K81">
+        <v>0.351</v>
+      </c>
+      <c r="L81">
+        <v>0.528</v>
+      </c>
+      <c r="M81">
+        <v>6.799012550000001</v>
+      </c>
+      <c r="N81">
+        <v>-6.271012550000002</v>
+      </c>
+      <c r="O81">
+        <v>-1.755883514000001</v>
+      </c>
+      <c r="P81">
+        <v>-4.515129036000001</v>
+      </c>
+      <c r="Q81">
+        <v>-4.164129036000001</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.4306781910341896</v>
+      </c>
+      <c r="T81">
+        <v>8.102569301502646</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.02174433403568287</v>
+      </c>
+      <c r="W81">
+        <v>0.179705565837645</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.07765833584172444</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2341538171289194</v>
+      </c>
+      <c r="C82">
+        <v>-14.97585486754696</v>
+      </c>
+      <c r="D82">
+        <v>15.66414513245304</v>
+      </c>
+      <c r="E82">
+        <v>30.13</v>
+      </c>
+      <c r="F82">
+        <v>37.48</v>
+      </c>
+      <c r="G82">
+        <v>6.84</v>
+      </c>
+      <c r="H82">
+        <v>39.5</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.879</v>
+      </c>
+      <c r="K82">
+        <v>0.351</v>
+      </c>
+      <c r="L82">
+        <v>0.528</v>
+      </c>
+      <c r="M82">
+        <v>6.885076000000001</v>
+      </c>
+      <c r="N82">
+        <v>-6.357076000000001</v>
+      </c>
+      <c r="O82">
+        <v>-1.779981280000001</v>
+      </c>
+      <c r="P82">
+        <v>-4.577094720000001</v>
+      </c>
+      <c r="Q82">
+        <v>-4.226094720000001</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.4517471005858991</v>
+      </c>
+      <c r="T82">
+        <v>8.507697766577778</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.02147252986023684</v>
+      </c>
+      <c r="W82">
+        <v>0.1797554962646745</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.07668760664370289</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2358978171289194</v>
+      </c>
+      <c r="C83">
+        <v>-15.56491326240324</v>
+      </c>
+      <c r="D83">
+        <v>15.54358673759677</v>
+      </c>
+      <c r="E83">
+        <v>30.5985</v>
+      </c>
+      <c r="F83">
+        <v>37.9485</v>
+      </c>
+      <c r="G83">
+        <v>6.84</v>
+      </c>
+      <c r="H83">
+        <v>39.5</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.879</v>
+      </c>
+      <c r="K83">
+        <v>0.351</v>
+      </c>
+      <c r="L83">
+        <v>0.528</v>
+      </c>
+      <c r="M83">
+        <v>6.971139450000001</v>
+      </c>
+      <c r="N83">
+        <v>-6.44313945</v>
+      </c>
+      <c r="O83">
+        <v>-1.804079046</v>
+      </c>
+      <c r="P83">
+        <v>-4.639060404</v>
+      </c>
+      <c r="Q83">
+        <v>-4.288060404</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.4750337900904202</v>
+      </c>
+      <c r="T83">
+        <v>8.955471333239768</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.02120743689899935</v>
+      </c>
+      <c r="W83">
+        <v>0.1798041938416538</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.07574084606785492</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2376418171289194</v>
+      </c>
+      <c r="C84">
+        <v>-16.15213008620368</v>
+      </c>
+      <c r="D84">
+        <v>15.42486991379632</v>
+      </c>
+      <c r="E84">
+        <v>31.067</v>
+      </c>
+      <c r="F84">
+        <v>38.417</v>
+      </c>
+      <c r="G84">
+        <v>6.84</v>
+      </c>
+      <c r="H84">
+        <v>39.5</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.879</v>
+      </c>
+      <c r="K84">
+        <v>0.351</v>
+      </c>
+      <c r="L84">
+        <v>0.528</v>
+      </c>
+      <c r="M84">
+        <v>7.0572029</v>
+      </c>
+      <c r="N84">
+        <v>-6.5292029</v>
+      </c>
+      <c r="O84">
+        <v>-1.828176812</v>
+      </c>
+      <c r="P84">
+        <v>-4.701026087999999</v>
+      </c>
+      <c r="Q84">
+        <v>-4.350026087999999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.500907889539888</v>
+      </c>
+      <c r="T84">
+        <v>9.452997518419755</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.02094880961974326</v>
+      </c>
+      <c r="W84">
+        <v>0.1798517036728532</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.07481717721336889</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2393858171289194</v>
+      </c>
+      <c r="C85">
+        <v>-16.7375472150617</v>
+      </c>
+      <c r="D85">
+        <v>15.30795278493831</v>
+      </c>
+      <c r="E85">
+        <v>31.53550000000001</v>
+      </c>
+      <c r="F85">
+        <v>38.88550000000001</v>
+      </c>
+      <c r="G85">
+        <v>6.84</v>
+      </c>
+      <c r="H85">
+        <v>39.5</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.879</v>
+      </c>
+      <c r="K85">
+        <v>0.351</v>
+      </c>
+      <c r="L85">
+        <v>0.528</v>
+      </c>
+      <c r="M85">
+        <v>7.143266350000001</v>
+      </c>
+      <c r="N85">
+        <v>-6.615266350000001</v>
+      </c>
+      <c r="O85">
+        <v>-1.852274578</v>
+      </c>
+      <c r="P85">
+        <v>-4.762991772</v>
+      </c>
+      <c r="Q85">
+        <v>-4.411991772</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.5298260006892932</v>
+      </c>
+      <c r="T85">
+        <v>10.00905619597386</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.02069641432311984</v>
+      </c>
+      <c r="W85">
+        <v>0.1798980686888429</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.07391576543971379</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2411298171289194</v>
+      </c>
+      <c r="C86">
+        <v>-17.32120526499487</v>
+      </c>
+      <c r="D86">
+        <v>15.19279473500513</v>
+      </c>
+      <c r="E86">
+        <v>32.004</v>
+      </c>
+      <c r="F86">
+        <v>39.354</v>
+      </c>
+      <c r="G86">
+        <v>6.84</v>
+      </c>
+      <c r="H86">
+        <v>39.5</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.879</v>
+      </c>
+      <c r="K86">
+        <v>0.351</v>
+      </c>
+      <c r="L86">
+        <v>0.528</v>
+      </c>
+      <c r="M86">
+        <v>7.2293298</v>
+      </c>
+      <c r="N86">
+        <v>-6.7013298</v>
+      </c>
+      <c r="O86">
+        <v>-1.876372344</v>
+      </c>
+      <c r="P86">
+        <v>-4.824957456</v>
+      </c>
+      <c r="Q86">
+        <v>-4.473957456</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.5623588757323738</v>
+      </c>
+      <c r="T86">
+        <v>10.63462220822222</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.0204500284383208</v>
+      </c>
+      <c r="W86">
+        <v>0.1799433297758805</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.07303581585114571</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2428738171289194</v>
+      </c>
+      <c r="C87">
+        <v>-17.9031436389682</v>
+      </c>
+      <c r="D87">
+        <v>15.0793563610318</v>
+      </c>
+      <c r="E87">
+        <v>32.4725</v>
+      </c>
+      <c r="F87">
+        <v>39.8225</v>
+      </c>
+      <c r="G87">
+        <v>6.84</v>
+      </c>
+      <c r="H87">
+        <v>39.5</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.879</v>
+      </c>
+      <c r="K87">
+        <v>0.351</v>
+      </c>
+      <c r="L87">
+        <v>0.528</v>
+      </c>
+      <c r="M87">
+        <v>7.31539325</v>
+      </c>
+      <c r="N87">
+        <v>-6.787393249999999</v>
+      </c>
+      <c r="O87">
+        <v>-1.90047011</v>
+      </c>
+      <c r="P87">
+        <v>-4.886923139999999</v>
+      </c>
+      <c r="Q87">
+        <v>-4.53592314</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.5992294674478653</v>
+      </c>
+      <c r="T87">
+        <v>11.3435970221037</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.0202094398684582</v>
+      </c>
+      <c r="W87">
+        <v>0.1799875258961642</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.07217657095877938</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2446178171289194</v>
+      </c>
+      <c r="C88">
+        <v>-18.48340057184521</v>
+      </c>
+      <c r="D88">
+        <v>14.96759942815479</v>
+      </c>
+      <c r="E88">
+        <v>32.941</v>
+      </c>
+      <c r="F88">
+        <v>40.291</v>
+      </c>
+      <c r="G88">
+        <v>6.84</v>
+      </c>
+      <c r="H88">
+        <v>39.5</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.879</v>
+      </c>
+      <c r="K88">
+        <v>0.351</v>
+      </c>
+      <c r="L88">
+        <v>0.528</v>
+      </c>
+      <c r="M88">
+        <v>7.401456700000001</v>
+      </c>
+      <c r="N88">
+        <v>-6.8734567</v>
+      </c>
+      <c r="O88">
+        <v>-1.924567876</v>
+      </c>
+      <c r="P88">
+        <v>-4.948888824</v>
+      </c>
+      <c r="Q88">
+        <v>-4.597888824</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.6413672865512843</v>
+      </c>
+      <c r="T88">
+        <v>12.15385395225397</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.01997444638161566</v>
+      </c>
+      <c r="W88">
+        <v>0.1800306941996972</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.07133730850577025</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2463618171289194</v>
+      </c>
+      <c r="C89">
+        <v>-19.06201317335499</v>
+      </c>
+      <c r="D89">
+        <v>14.85748682664501</v>
+      </c>
+      <c r="E89">
+        <v>33.4095</v>
+      </c>
+      <c r="F89">
+        <v>40.7595</v>
+      </c>
+      <c r="G89">
+        <v>6.84</v>
+      </c>
+      <c r="H89">
+        <v>39.5</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.879</v>
+      </c>
+      <c r="K89">
+        <v>0.351</v>
+      </c>
+      <c r="L89">
+        <v>0.528</v>
+      </c>
+      <c r="M89">
+        <v>7.487520150000001</v>
+      </c>
+      <c r="N89">
+        <v>-6.959520150000001</v>
+      </c>
+      <c r="O89">
+        <v>-1.948665642000001</v>
+      </c>
+      <c r="P89">
+        <v>-5.010854508</v>
+      </c>
+      <c r="Q89">
+        <v>-4.659854508</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6899878470552293</v>
+      </c>
+      <c r="T89">
+        <v>13.08876579473504</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.01974485504389594</v>
+      </c>
+      <c r="W89">
+        <v>0.1800728701284363</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.07051733944248539</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2481058171289194</v>
+      </c>
+      <c r="C90">
+        <v>-19.63901746917657</v>
+      </c>
+      <c r="D90">
+        <v>14.74898253082343</v>
+      </c>
+      <c r="E90">
+        <v>33.878</v>
+      </c>
+      <c r="F90">
+        <v>41.228</v>
+      </c>
+      <c r="G90">
+        <v>6.84</v>
+      </c>
+      <c r="H90">
+        <v>39.5</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.879</v>
+      </c>
+      <c r="K90">
+        <v>0.351</v>
+      </c>
+      <c r="L90">
+        <v>0.528</v>
+      </c>
+      <c r="M90">
+        <v>7.5735836</v>
+      </c>
+      <c r="N90">
+        <v>-7.045583600000001</v>
+      </c>
+      <c r="O90">
+        <v>-1.972763408</v>
+      </c>
+      <c r="P90">
+        <v>-5.072820192</v>
+      </c>
+      <c r="Q90">
+        <v>-4.721820192</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.7467118343098318</v>
+      </c>
+      <c r="T90">
+        <v>14.17949627762963</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.0195204816911244</v>
+      </c>
+      <c r="W90">
+        <v>0.1801140875133405</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.06971600603972994</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2498498171289194</v>
+      </c>
+      <c r="C91">
+        <v>-20.21444844023596</v>
+      </c>
+      <c r="D91">
+        <v>14.64205155976404</v>
+      </c>
+      <c r="E91">
+        <v>34.3465</v>
+      </c>
+      <c r="F91">
+        <v>41.6965</v>
+      </c>
+      <c r="G91">
+        <v>6.84</v>
+      </c>
+      <c r="H91">
+        <v>39.5</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.879</v>
+      </c>
+      <c r="K91">
+        <v>0.351</v>
+      </c>
+      <c r="L91">
+        <v>0.528</v>
+      </c>
+      <c r="M91">
+        <v>7.65964705</v>
+      </c>
+      <c r="N91">
+        <v>-7.13164705</v>
+      </c>
+      <c r="O91">
+        <v>-1.996861174</v>
+      </c>
+      <c r="P91">
+        <v>-5.134785876</v>
+      </c>
+      <c r="Q91">
+        <v>-4.783785876</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.8137492737925438</v>
+      </c>
+      <c r="T91">
+        <v>15.46854139377778</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.01930115043616795</v>
+      </c>
+      <c r="W91">
+        <v>0.1801543786648759</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.06893268012917131</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2515938171289194</v>
+      </c>
+      <c r="C92">
+        <v>-20.78834006030624</v>
+      </c>
+      <c r="D92">
+        <v>14.53665993969376</v>
+      </c>
+      <c r="E92">
+        <v>34.815</v>
+      </c>
+      <c r="F92">
+        <v>42.165</v>
+      </c>
+      <c r="G92">
+        <v>6.84</v>
+      </c>
+      <c r="H92">
+        <v>39.5</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.879</v>
+      </c>
+      <c r="K92">
+        <v>0.351</v>
+      </c>
+      <c r="L92">
+        <v>0.528</v>
+      </c>
+      <c r="M92">
+        <v>7.745710499999999</v>
+      </c>
+      <c r="N92">
+        <v>-7.217710499999999</v>
+      </c>
+      <c r="O92">
+        <v>-2.02095894</v>
+      </c>
+      <c r="P92">
+        <v>-5.196751559999999</v>
+      </c>
+      <c r="Q92">
+        <v>-4.845751559999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.8941942011717984</v>
+      </c>
+      <c r="T92">
+        <v>17.01539553315556</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.01908669320909941</v>
+      </c>
+      <c r="W92">
+        <v>0.1801937744574884</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.06816676146106937</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2533378171289194</v>
+      </c>
+      <c r="C93">
+        <v>-21.36072533199523</v>
+      </c>
+      <c r="D93">
+        <v>14.43277466800477</v>
+      </c>
+      <c r="E93">
+        <v>35.2835</v>
+      </c>
+      <c r="F93">
+        <v>42.63350000000001</v>
+      </c>
+      <c r="G93">
+        <v>6.84</v>
+      </c>
+      <c r="H93">
+        <v>39.5</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.879</v>
+      </c>
+      <c r="K93">
+        <v>0.351</v>
+      </c>
+      <c r="L93">
+        <v>0.528</v>
+      </c>
+      <c r="M93">
+        <v>7.831773950000001</v>
+      </c>
+      <c r="N93">
+        <v>-7.303773950000002</v>
+      </c>
+      <c r="O93">
+        <v>-2.045056706000001</v>
+      </c>
+      <c r="P93">
+        <v>-5.258717244000001</v>
+      </c>
+      <c r="Q93">
+        <v>-4.907717244000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.992515779079776</v>
+      </c>
+      <c r="T93">
+        <v>18.90599503683951</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.01887694932768074</v>
+      </c>
+      <c r="W93">
+        <v>0.180232304408505</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.06741767617028827</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2550818171289194</v>
+      </c>
+      <c r="C94">
+        <v>-21.93163632120115</v>
+      </c>
+      <c r="D94">
+        <v>14.33036367879885</v>
+      </c>
+      <c r="E94">
+        <v>35.752</v>
+      </c>
+      <c r="F94">
+        <v>43.102</v>
+      </c>
+      <c r="G94">
+        <v>6.84</v>
+      </c>
+      <c r="H94">
+        <v>39.5</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.879</v>
+      </c>
+      <c r="K94">
+        <v>0.351</v>
+      </c>
+      <c r="L94">
+        <v>0.528</v>
+      </c>
+      <c r="M94">
+        <v>7.917837400000001</v>
+      </c>
+      <c r="N94">
+        <v>-7.389837400000001</v>
+      </c>
+      <c r="O94">
+        <v>-2.069154472000001</v>
+      </c>
+      <c r="P94">
+        <v>-5.320682928</v>
+      </c>
+      <c r="Q94">
+        <v>-4.969682928</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.115417751464748</v>
+      </c>
+      <c r="T94">
+        <v>21.26924441644445</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.01867176509585812</v>
+      </c>
+      <c r="W94">
+        <v>0.1802699967518909</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.06668487534235035</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2568258171289194</v>
+      </c>
+      <c r="C95">
+        <v>-22.5011041901116</v>
+      </c>
+      <c r="D95">
+        <v>14.2293958098884</v>
+      </c>
+      <c r="E95">
+        <v>36.2205</v>
+      </c>
+      <c r="F95">
+        <v>43.5705</v>
+      </c>
+      <c r="G95">
+        <v>6.84</v>
+      </c>
+      <c r="H95">
+        <v>39.5</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.879</v>
+      </c>
+      <c r="K95">
+        <v>0.351</v>
+      </c>
+      <c r="L95">
+        <v>0.528</v>
+      </c>
+      <c r="M95">
+        <v>8.003900850000001</v>
+      </c>
+      <c r="N95">
+        <v>-7.47590085</v>
+      </c>
+      <c r="O95">
+        <v>-2.093252238</v>
+      </c>
+      <c r="P95">
+        <v>-5.382648612000001</v>
+      </c>
+      <c r="Q95">
+        <v>-5.031648612000001</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.27343457310257</v>
+      </c>
+      <c r="T95">
+        <v>24.30770790450795</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.01847099342816072</v>
+      </c>
+      <c r="W95">
+        <v>0.1803068785072469</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.06596783367200265</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2585698171289195</v>
+      </c>
+      <c r="C96">
+        <v>-23.06915922881736</v>
+      </c>
+      <c r="D96">
+        <v>14.12984077118265</v>
+      </c>
+      <c r="E96">
+        <v>36.689</v>
+      </c>
+      <c r="F96">
+        <v>44.039</v>
+      </c>
+      <c r="G96">
+        <v>6.84</v>
+      </c>
+      <c r="H96">
+        <v>39.5</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.879</v>
+      </c>
+      <c r="K96">
+        <v>0.351</v>
+      </c>
+      <c r="L96">
+        <v>0.528</v>
+      </c>
+      <c r="M96">
+        <v>8.0899643</v>
+      </c>
+      <c r="N96">
+        <v>-7.5619643</v>
+      </c>
+      <c r="O96">
+        <v>-2.117350004</v>
+      </c>
+      <c r="P96">
+        <v>-5.444614295999999</v>
+      </c>
+      <c r="Q96">
+        <v>-5.093614295999999</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.484123668619665</v>
+      </c>
+      <c r="T96">
+        <v>28.35899255525928</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.01827449349807391</v>
+      </c>
+      <c r="W96">
+        <v>0.1803429755444038</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.06526604820740689</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2603138171289194</v>
+      </c>
+      <c r="C97">
+        <v>-23.63583088560821</v>
+      </c>
+      <c r="D97">
+        <v>14.0316691143918</v>
+      </c>
+      <c r="E97">
+        <v>37.15750000000001</v>
+      </c>
+      <c r="F97">
+        <v>44.50750000000001</v>
+      </c>
+      <c r="G97">
+        <v>6.84</v>
+      </c>
+      <c r="H97">
+        <v>39.5</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.879</v>
+      </c>
+      <c r="K97">
+        <v>0.351</v>
+      </c>
+      <c r="L97">
+        <v>0.528</v>
+      </c>
+      <c r="M97">
+        <v>8.176027750000001</v>
+      </c>
+      <c r="N97">
+        <v>-7.648027750000001</v>
+      </c>
+      <c r="O97">
+        <v>-2.141447770000001</v>
+      </c>
+      <c r="P97">
+        <v>-5.50657998</v>
+      </c>
+      <c r="Q97">
+        <v>-5.15557998</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.779088402343599</v>
+      </c>
+      <c r="T97">
+        <v>34.03079106631115</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.01808213040862049</v>
+      </c>
+      <c r="W97">
+        <v>0.1803783126439364</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.06457903717364466</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2620578171289194</v>
+      </c>
+      <c r="C98">
+        <v>-24.20114779601465</v>
+      </c>
+      <c r="D98">
+        <v>13.93485220398535</v>
+      </c>
+      <c r="E98">
+        <v>37.626</v>
+      </c>
+      <c r="F98">
+        <v>44.976</v>
+      </c>
+      <c r="G98">
+        <v>6.84</v>
+      </c>
+      <c r="H98">
+        <v>39.5</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.879</v>
+      </c>
+      <c r="K98">
+        <v>0.351</v>
+      </c>
+      <c r="L98">
+        <v>0.528</v>
+      </c>
+      <c r="M98">
+        <v>8.2620912</v>
+      </c>
+      <c r="N98">
+        <v>-7.7340912</v>
+      </c>
+      <c r="O98">
+        <v>-2.165545536</v>
+      </c>
+      <c r="P98">
+        <v>-5.568545664</v>
+      </c>
+      <c r="Q98">
+        <v>-5.217545664</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.221535502929493</v>
+      </c>
+      <c r="T98">
+        <v>42.53848883288885</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.0178937748835307</v>
+      </c>
+      <c r="W98">
+        <v>0.1804129135538954</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.0639063388697525</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2638018171289194</v>
+      </c>
+      <c r="C99">
+        <v>-24.76513781065544</v>
+      </c>
+      <c r="D99">
+        <v>13.83936218934456</v>
+      </c>
+      <c r="E99">
+        <v>38.0945</v>
+      </c>
+      <c r="F99">
+        <v>45.4445</v>
+      </c>
+      <c r="G99">
+        <v>6.84</v>
+      </c>
+      <c r="H99">
+        <v>39.5</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.879</v>
+      </c>
+      <c r="K99">
+        <v>0.351</v>
+      </c>
+      <c r="L99">
+        <v>0.528</v>
+      </c>
+      <c r="M99">
+        <v>8.34815465</v>
+      </c>
+      <c r="N99">
+        <v>-7.820154649999999</v>
+      </c>
+      <c r="O99">
+        <v>-2.189643302</v>
+      </c>
+      <c r="P99">
+        <v>-5.630511347999999</v>
+      </c>
+      <c r="Q99">
+        <v>-5.279511347999999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.958947337239325</v>
+      </c>
+      <c r="T99">
+        <v>56.71798511051846</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.01770930297751492</v>
+      </c>
+      <c r="W99">
+        <v>0.1804468010430305</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.06324751063398193</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2655458171289193</v>
+      </c>
+      <c r="C100">
+        <v>-25.32782802194804</v>
+      </c>
+      <c r="D100">
+        <v>13.74517197805196</v>
+      </c>
+      <c r="E100">
+        <v>38.563</v>
+      </c>
+      <c r="F100">
+        <v>45.913</v>
+      </c>
+      <c r="G100">
+        <v>6.84</v>
+      </c>
+      <c r="H100">
+        <v>39.5</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.879</v>
+      </c>
+      <c r="K100">
+        <v>0.351</v>
+      </c>
+      <c r="L100">
+        <v>0.528</v>
+      </c>
+      <c r="M100">
+        <v>8.434218100000001</v>
+      </c>
+      <c r="N100">
+        <v>-7.9062181</v>
+      </c>
+      <c r="O100">
+        <v>-2.213741068</v>
+      </c>
+      <c r="P100">
+        <v>-5.692477031999999</v>
+      </c>
+      <c r="Q100">
+        <v>-5.341477031999999</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>4.433771005858986</v>
+      </c>
+      <c r="T100">
+        <v>85.07697766577769</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.01752859580427497</v>
+      </c>
+      <c r="W100">
+        <v>0.1804799969507547</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.06260212787241071</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2672898171289194</v>
+      </c>
+      <c r="C101">
+        <v>-25.8892447897356</v>
+      </c>
+      <c r="D101">
+        <v>13.6522552102644</v>
+      </c>
+      <c r="E101">
+        <v>39.0315</v>
+      </c>
+      <c r="F101">
+        <v>46.3815</v>
+      </c>
+      <c r="G101">
+        <v>6.84</v>
+      </c>
+      <c r="H101">
+        <v>39.5</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.879</v>
+      </c>
+      <c r="K101">
+        <v>0.351</v>
+      </c>
+      <c r="L101">
+        <v>0.528</v>
+      </c>
+      <c r="M101">
+        <v>8.52028155</v>
+      </c>
+      <c r="N101">
+        <v>-7.99228155</v>
+      </c>
+      <c r="O101">
+        <v>-2.237838834</v>
+      </c>
+      <c r="P101">
+        <v>-5.754442716</v>
+      </c>
+      <c r="Q101">
+        <v>-5.403442716</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>8.858242011717975</v>
+      </c>
+      <c r="T101">
+        <v>170.1539553315554</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.01735153928099947</v>
+      </c>
+      <c r="W101">
+        <v>0.1805125222340804</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.06196978314642676</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
